--- a/PythonResources/Data/Consumption/Sympheny/base_1691_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1691_coo.xlsx
@@ -399,7 +399,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.6031401975650487</v>
+        <v>0.6031401975650486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.6099863370281777</v>
+        <v>0.6099863370281776</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.2873880981506632</v>
+        <v>0.2873880981506631</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.6544071143580777</v>
+        <v>0.6544071143580776</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>27.07574889907865</v>
+        <v>27.07574889907864</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>0.9136958543929298</v>
+        <v>0.9136958543929296</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>0.5463488916932532</v>
+        <v>0.5463488916932531</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>0.832046263021879</v>
+        <v>0.8320462630218789</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>0.6338452502855978</v>
+        <v>0.6338452502855977</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>0.500919949990358</v>
+        <v>0.5009199499903579</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>0.4451749077265835</v>
+        <v>0.4451749077265834</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>0.4836668579443646</v>
+        <v>0.4836668579443645</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>0.647528737080696</v>
+        <v>0.6475287370806959</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>5.350334188905386</v>
+        <v>5.350334188905385</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>1.093119805682179</v>
+        <v>1.093119805682178</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>0.3201302876609473</v>
+        <v>0.3201302876609472</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>0.831334100397932</v>
+        <v>0.8313341003979319</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>0.6644360053010691</v>
+        <v>0.6644360053010689</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>0.5933516248737597</v>
+        <v>0.5933516248737596</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>0.4328835083651267</v>
+        <v>0.4328835083651266</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>0.4139833570818565</v>
+        <v>0.4139833570818564</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>0.2117323956623142</v>
+        <v>0.2117323956623141</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>0.9616803755529518</v>
+        <v>0.9616803755529516</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>1.247568243056708</v>
+        <v>1.247568243056707</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>0.4093264582775278</v>
+        <v>0.4093264582775277</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>5.362027723347974</v>
+        <v>5.362027723347973</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>11.38012427384324</v>
+        <v>11.38012427384323</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>7.925578712726494</v>
+        <v>7.925578712726493</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>7.062836189115226</v>
+        <v>7.062836189115225</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>7.794839722379667</v>
+        <v>7.794839722379666</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>3.056994697172627</v>
+        <v>3.056994697172626</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>0.6560981342511537</v>
+        <v>0.6560981342511536</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>30.31028603147232</v>
+        <v>30.31028603147231</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>22.16124065176655</v>
+        <v>22.16124065176654</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0.741891750108876</v>
+        <v>0.7418917501088759</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>19.95236423337599</v>
+        <v>19.95236423337598</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>0.7846068539937671</v>
+        <v>0.784606853993767</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>0.7101433644906925</v>
+        <v>0.7101433644906924</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>0.717766142206274</v>
+        <v>0.7177661422062739</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>0.7132411253693428</v>
+        <v>0.7132411253693427</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>0.9318633280795466</v>
+        <v>0.9318633280795464</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>0.8456213135326726</v>
+        <v>0.8456213135326724</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>37.33226811779815</v>
+        <v>37.33226811779814</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>2.03005033202018</v>
+        <v>2.030050332020179</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>0.5000172911912811</v>
+        <v>0.500017291191281</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>0.3732376905767697</v>
+        <v>0.3732376905767696</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>0.4010472014353448</v>
+        <v>0.4010472014353447</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>5.995530080518337</v>
+        <v>5.995530080518336</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>21.37252787252114</v>
+        <v>21.37252787252113</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>0.3383886133695492</v>
+        <v>0.3383886133695491</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>0.4296978261748779</v>
+        <v>0.4296978261748778</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>0.1266398057290699</v>
+        <v>0.1266398057290698</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>4.607018113548616</v>
+        <v>4.607018113548615</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>6.487391204703674</v>
+        <v>6.487391204703673</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>6.66384927708167</v>
+        <v>6.663849277081669</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>0.3053155466566163</v>
+        <v>0.3053155466566162</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>0.3770534755001404</v>
+        <v>0.3770534755001403</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>0.4934671534772</v>
+        <v>0.4934671534771999</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>0.3396019274696071</v>
+        <v>0.339601927469607</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>0.3258363807836837</v>
+        <v>0.3258363807836836</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>0.2524927157193341</v>
+        <v>0.252492715719334</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>0.0267130148745275</v>
+        <v>0.0267130148745274</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>0.1521610179177772</v>
+        <v>0.1521610179177771</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>0.4581081326627087</v>
+        <v>0.4581081326627086</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>0.479001167008876</v>
+        <v>0.4790011670088759</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>0.3826071716827729</v>
+        <v>0.3826071716827728</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>0.1753473331414695</v>
+        <v>0.1753473331414694</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>0.3225832922545428</v>
+        <v>0.3225832922545427</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>0.1173696757051729</v>
+        <v>0.1173696757051728</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>0.8984796060656327</v>
+        <v>0.8984796060656326</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>0.3378786697622784</v>
+        <v>0.3378786697622783</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>0.3430455121738779</v>
+        <v>0.3430455121738778</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>0.1961328104164481</v>
+        <v>0.196132810416448</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>0.3835889596622884</v>
+        <v>0.3835889596622883</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>0.9274379553957603</v>
+        <v>0.9274379553957602</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>3.938904066712347</v>
+        <v>3.938904066712346</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>653</v>
       </c>
       <c r="B653">
-        <v>0.0876127077946932</v>
+        <v>0.0876127077946931</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>0.1045662812391747</v>
+        <v>0.1045662812391746</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>0.2886949019120541</v>
+        <v>0.288694901912054</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>0.965841984301943</v>
+        <v>0.9658419843019428</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>6.007780449934383</v>
+        <v>6.007780449934382</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>6.647847598370761</v>
+        <v>6.64784759837076</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>0.2601418698283952</v>
+        <v>0.2601418698283951</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>0.5197497642243495</v>
+        <v>0.5197497642243494</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>0.6687207038862979</v>
+        <v>0.6687207038862978</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>0.6346570570626897</v>
+        <v>0.6346570570626896</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>3.329199077881285</v>
+        <v>3.329199077881284</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>21.8611652152812</v>
+        <v>21.86116521528119</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>1.748353380369282</v>
+        <v>1.748353380369281</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>0.1814288502647311</v>
+        <v>0.181428850264731</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>0.2240519298434825</v>
+        <v>0.2240519298434824</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>4.607574948522073</v>
+        <v>4.607574948522072</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>0.5162475653123464</v>
+        <v>0.5162475653123463</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>0.3721650505752692</v>
+        <v>0.3721650505752691</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>0.4192674279089206</v>
+        <v>0.4192674279089205</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>0.40240998176512</v>
+        <v>0.4024099817651199</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>3.281340577267887</v>
+        <v>3.281340577267886</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>5.180177143858609</v>
+        <v>5.180177143858608</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>0.1722252473666102</v>
+        <v>0.1722252473666101</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>905</v>
       </c>
       <c r="B905">
-        <v>0.2396682201385523</v>
+        <v>0.2396682201385522</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>0.6744561041129005</v>
+        <v>0.6744561041129004</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>0.5229442385457581</v>
+        <v>0.522944238545758</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>0.4556785737522061</v>
+        <v>0.455678573752206</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>0.3481918396127711</v>
+        <v>0.348191839612771</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>0.2601480243202071</v>
+        <v>0.260148024320207</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7823,7 +7823,7 @@
         <v>935</v>
       </c>
       <c r="B935">
-        <v>1.276485562441423</v>
+        <v>1.276485562441422</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>0.6443547777319937</v>
+        <v>0.6443547777319936</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>0.4753582939983155</v>
+        <v>0.4753582939983154</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>0.5620047465785423</v>
+        <v>0.5620047465785422</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>0.8863552571962129</v>
+        <v>0.8863552571962128</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>0.8876301162143897</v>
+        <v>0.8876301162143896</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>0.8014144780609952</v>
+        <v>0.8014144780609951</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>1011</v>
       </c>
       <c r="B1011">
-        <v>0.4538732561540523</v>
+        <v>0.4538732561540522</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>0.2917322901567403</v>
+        <v>0.2917322901567402</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>0.7663485282851652</v>
+        <v>0.7663485282851651</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>20.40005955203506</v>
+        <v>20.40005955203505</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>0.8859977105290461</v>
+        <v>0.885997710529046</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>0.5208634341712626</v>
+        <v>0.5208634341712625</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>8.111502979653251</v>
+        <v>8.111502979653249</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>0.1898657793257139</v>
+        <v>0.1898657793257138</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>5.151719946004593</v>
+        <v>5.151719946004592</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>7.631745689364628</v>
+        <v>7.631745689364627</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>0.4991146323922041</v>
+        <v>0.499114632392204</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>0.1681931760167074</v>
+        <v>0.1681931760167073</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>0.2066001356332767</v>
+        <v>0.2066001356332766</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>0.4568479271964649</v>
+        <v>0.4568479271964648</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>0.3554394863988662</v>
+        <v>0.3554394863988661</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>0.2734563801858188</v>
+        <v>0.2734563801858187</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>4.694236054654232</v>
+        <v>4.694236054654231</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>0.294301937023723</v>
+        <v>0.2943019370237229</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>0.4442956946105995</v>
+        <v>0.4442956946105994</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9871,7 +9871,7 @@
         <v>1191</v>
       </c>
       <c r="B1191">
-        <v>1.909014923763431</v>
+        <v>1.90901492376343</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>1199</v>
       </c>
       <c r="B1199">
-        <v>0.7340110698792724</v>
+        <v>0.7340110698792723</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9943,7 +9943,7 @@
         <v>1200</v>
       </c>
       <c r="B1200">
-        <v>0.5533063981510735</v>
+        <v>0.5533063981510734</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -10207,7 +10207,7 @@
         <v>1233</v>
       </c>
       <c r="B1233">
-        <v>0.7765356775890336</v>
+        <v>0.7765356775890335</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>7.527148635666395</v>
+        <v>7.527148635666394</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10343,7 +10343,7 @@
         <v>1250</v>
       </c>
       <c r="B1250">
-        <v>1.340325226793024</v>
+        <v>1.340325226793023</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10359,7 +10359,7 @@
         <v>1252</v>
       </c>
       <c r="B1252">
-        <v>0.9909200730801944</v>
+        <v>0.990920073080194</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>0.853162031357429</v>
+        <v>0.8531620313574289</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>0.8171025707605371</v>
+        <v>0.8171025707605369</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>0.5269387968027123</v>
+        <v>0.5269387968027122</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>0.6510250745719258</v>
+        <v>0.6510250745719257</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>0.6514998496545573</v>
+        <v>0.6514998496545572</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>0.6712645605018783</v>
+        <v>0.6712645605018782</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>0.9671021897681868</v>
+        <v>0.9671021897681866</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>0.9201434172434794</v>
+        <v>0.9201434172434791</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>0.9532282067979588</v>
+        <v>0.9532282067979586</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>0.7961509222066374</v>
+        <v>0.7961509222066373</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>50.53687683572373</v>
+        <v>50.53687683572372</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>47.61935464585003</v>
+        <v>47.61935464585002</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>21.44673345951019</v>
+        <v>21.44673345951018</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>11.75844967765117</v>
+        <v>11.75844967765116</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>5.78920806930075</v>
+        <v>5.789208069300749</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>7.040386947553766</v>
+        <v>7.040386947553765</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>1.674042287806311</v>
+        <v>1.67404228780631</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>0.9939445661991794</v>
+        <v>0.9939445661991791</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>8.238725117536141</v>
+        <v>8.23872511753614</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>0.9115916043353414</v>
+        <v>0.9115916043353413</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>26.01626778721402</v>
+        <v>26.01626778721401</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>1.949883680104756</v>
+        <v>1.949883680104755</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11551,7 +11551,7 @@
         <v>1401</v>
       </c>
       <c r="B1401">
-        <v>5.838121625653329</v>
+        <v>5.838121625653328</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>0.8434994792127644</v>
+        <v>0.8434994792127642</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>0.4502215910123319</v>
+        <v>0.4502215910123318</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>0.3535550396202738</v>
+        <v>0.3535550396202737</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>1437</v>
       </c>
       <c r="B1437">
-        <v>1.470269994625078</v>
+        <v>1.470269994625077</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>0.7325691603690586</v>
+        <v>0.7325691603690585</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>15.88201780582403</v>
+        <v>15.88201780582402</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1458</v>
       </c>
       <c r="B1458">
-        <v>10.01699225882159</v>
+        <v>10.01699225882158</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>5.184543902334664</v>
+        <v>5.184543902334663</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>7.340638226662314</v>
+        <v>7.340638226662313</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>0.4392402191936913</v>
+        <v>0.4392402191936912</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>36.91962409536298</v>
+        <v>36.91962409536297</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>9.220894089401908</v>
+        <v>9.220894089401906</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>1536</v>
       </c>
       <c r="B1536">
-        <v>0.7320387017890816</v>
+        <v>0.7320387017890815</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>0.5405021244719593</v>
+        <v>0.5405021244719592</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1541</v>
       </c>
       <c r="B1541">
-        <v>0.332354280683512</v>
+        <v>0.3323542806835119</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
@@ -12799,7 +12799,7 @@
         <v>1557</v>
       </c>
       <c r="B1557">
-        <v>18.24173788781358</v>
+        <v>18.24173788781357</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>0.7385947009239359</v>
+        <v>0.7385947009239358</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>0.5757996003683318</v>
+        <v>0.5757996003683317</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>34.41005679130588</v>
+        <v>34.41005679130587</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>51.5939840721752</v>
+        <v>51.59398407217519</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13047,7 +13047,7 @@
         <v>1588</v>
       </c>
       <c r="B1588">
-        <v>2.099502306762146</v>
+        <v>2.099502306762145</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>0.717221030074364</v>
+        <v>0.7172210300743639</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>1.807134638593588</v>
+        <v>1.807134638593587</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>0.4216002733766649</v>
+        <v>0.4216002733766648</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>0.2271104192029523</v>
+        <v>0.2271104192029522</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>0.4370773549283705</v>
+        <v>0.4370773549283704</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13687,7 +13687,7 @@
         <v>1668</v>
       </c>
       <c r="B1668">
-        <v>7.321207616799067</v>
+        <v>7.321207616799066</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13767,7 +13767,7 @@
         <v>1678</v>
       </c>
       <c r="B1678">
-        <v>1.789134215399008</v>
+        <v>1.789134215399007</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>0.4594914279651902</v>
+        <v>0.4594914279651901</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>0.4132096495397906</v>
+        <v>0.4132096495397905</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>0.3776425482878497</v>
+        <v>0.3776425482878496</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>0.4912661899768533</v>
+        <v>0.4912661899768532</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>0.5147148037801476</v>
+        <v>0.5147148037801474</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>33.06222308450235</v>
+        <v>33.06222308450234</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14343,7 +14343,7 @@
         <v>1750</v>
       </c>
       <c r="B1750">
-        <v>3.297899090952253</v>
+        <v>3.297899090952252</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>4.997740422291922</v>
+        <v>4.997740422291921</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>44.1956987722082</v>
+        <v>44.19569877220819</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>5.984393381049206</v>
+        <v>5.984393381049205</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14727,7 +14727,7 @@
         <v>1798</v>
       </c>
       <c r="B1798">
-        <v>2.341921877811651</v>
+        <v>2.34192187781165</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>6.349999501779235</v>
+        <v>6.349999501779234</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>4.843028220982597</v>
+        <v>4.843028220982596</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>0.6971544560572216</v>
+        <v>0.6971544560572215</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>0.4081541741228824</v>
+        <v>0.4081541741228823</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>0.5128831097885141</v>
+        <v>0.512883109788514</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15047,7 +15047,7 @@
         <v>1838</v>
       </c>
       <c r="B1838">
-        <v>30.10777394375733</v>
+        <v>30.10777394375732</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15071,7 +15071,7 @@
         <v>1841</v>
       </c>
       <c r="B1841">
-        <v>56.04983614398229</v>
+        <v>56.04983614398228</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>0.7907730686472018</v>
+        <v>0.7907730686472016</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15151,7 +15151,7 @@
         <v>1851</v>
       </c>
       <c r="B1851">
-        <v>0.4288977422393324</v>
+        <v>0.4288977422393323</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>8.689204611062495</v>
+        <v>8.689204611062493</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15255,7 +15255,7 @@
         <v>1864</v>
       </c>
       <c r="B1864">
-        <v>58.71971330618715</v>
+        <v>58.71971330618714</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>36.06092595208524</v>
+        <v>36.06092595208523</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>23.5261017859163</v>
+        <v>23.52610178591629</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>1.442313948247172</v>
+        <v>1.442313948247171</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>0.7645432106870114</v>
+        <v>0.7645432106870113</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>7.53362550562081</v>
+        <v>7.533625505620809</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>6.352666448231053</v>
+        <v>6.352666448231052</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>5.844891566646406</v>
+        <v>5.844891566646405</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15687,7 +15687,7 @@
         <v>1918</v>
       </c>
       <c r="B1918">
-        <v>5.662454845079719</v>
+        <v>5.662454845079718</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>0.6403103973984671</v>
+        <v>0.640310397398467</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15727,7 +15727,7 @@
         <v>1923</v>
       </c>
       <c r="B1923">
-        <v>0.456308676485328</v>
+        <v>0.4563086764853279</v>
       </c>
     </row>
     <row r="1924" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>0.4084267301888374</v>
+        <v>0.4084267301888373</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>43.42111201702626</v>
+        <v>43.42111201702625</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>32.76153219883581</v>
+        <v>32.7615321988358</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -15863,7 +15863,7 @@
         <v>1940</v>
       </c>
       <c r="B1940">
-        <v>28.02664719111925</v>
+        <v>28.02664719111924</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>0.7013570947516253</v>
+        <v>0.7013570947516252</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>0.6216798714707654</v>
+        <v>0.6216798714707653</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -15927,7 +15927,7 @@
         <v>1948</v>
       </c>
       <c r="B1948">
-        <v>0.6047227811738199</v>
+        <v>0.6047227811738198</v>
       </c>
     </row>
     <row r="1949" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>0.6195492450196973</v>
+        <v>0.6195492450196972</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>0.5722065494343437</v>
+        <v>0.5722065494343436</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16015,7 +16015,7 @@
         <v>1959</v>
       </c>
       <c r="B1959">
-        <v>0.3646096791985797</v>
+        <v>0.3646096791985796</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>0.5961357997410425</v>
+        <v>0.5961357997410424</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16335,7 +16335,7 @@
         <v>1999</v>
       </c>
       <c r="B1999">
-        <v>0.7143694488681891</v>
+        <v>0.714369448868189</v>
       </c>
     </row>
     <row r="2000" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>0.2771191820270083</v>
+        <v>0.2771191820270082</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>0.2590276137394048</v>
+        <v>0.2590276137394047</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>0.5597539610016231</v>
+        <v>0.559753961001623</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16559,7 +16559,7 @@
         <v>2027</v>
       </c>
       <c r="B2027">
-        <v>0.2584596420664791</v>
+        <v>0.258459642066479</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>0.4431615096909801</v>
+        <v>0.44316150969098</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>0.3403111593831676</v>
+        <v>0.3403111593831675</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>0.4704434926799647</v>
+        <v>0.4704434926799646</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>0.6592896778621758</v>
+        <v>0.6592896778621757</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -16927,7 +16927,7 @@
         <v>2073</v>
       </c>
       <c r="B2073">
-        <v>0.457870745121393</v>
+        <v>0.4578707451213929</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>0.3333741678980535</v>
+        <v>0.3333741678980534</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17031,7 +17031,7 @@
         <v>2086</v>
       </c>
       <c r="B2086">
-        <v>5.719076169749091</v>
+        <v>5.71907616974909</v>
       </c>
     </row>
     <row r="2087" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>1.741407596753008</v>
+        <v>1.741407596753007</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>0.7668379569197297</v>
+        <v>0.7668379569197296</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>0.7440135844287841</v>
+        <v>0.744013584428784</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17119,7 +17119,7 @@
         <v>2097</v>
       </c>
       <c r="B2097">
-        <v>0.5988056769032474</v>
+        <v>0.5988056769032473</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>0.483057270183949</v>
+        <v>0.4830572701839489</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>36.46331248816726</v>
+        <v>36.46331248816725</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>4.549253811828465</v>
+        <v>4.549253811828464</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>0.9647722750108292</v>
+        <v>0.964772275010829</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>0.7123384665702659</v>
+        <v>0.7123384665702658</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>0.6781605220415798</v>
+        <v>0.6781605220415797</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>0.667560142573199</v>
+        <v>0.6675601425731988</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>21.47630432731112</v>
+        <v>21.47630432731111</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>0.6503627340245512</v>
+        <v>0.6503627340245511</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>0.7239323568597087</v>
+        <v>0.7239323568597086</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17639,7 +17639,7 @@
         <v>2162</v>
       </c>
       <c r="B2162">
-        <v>0.6021701324270796</v>
+        <v>0.6021701324270795</v>
       </c>
     </row>
     <row r="2163" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>0.5492708099487068</v>
+        <v>0.5492708099487067</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>21.37918058509875</v>
+        <v>21.37918058509874</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>22.07789124837126</v>
+        <v>22.07789124837125</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>33.29902448374072</v>
+        <v>33.29902448374071</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>80.13412103013299</v>
+        <v>80.13412103013297</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>37.14851257655749</v>
+        <v>37.14851257655748</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -18047,7 +18047,7 @@
         <v>2213</v>
       </c>
       <c r="B2213">
-        <v>0.7252834143479375</v>
+        <v>0.7252834143479374</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>0.7401684924015473</v>
+        <v>0.7401684924015471</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>65.34487720616552</v>
+        <v>65.34487720616551</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18159,7 +18159,7 @@
         <v>2227</v>
       </c>
       <c r="B2227">
-        <v>49.52519561026476</v>
+        <v>49.52519561026475</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>8.822815697588203</v>
+        <v>8.822815697588201</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18239,7 +18239,7 @@
         <v>2237</v>
       </c>
       <c r="B2237">
-        <v>1.04239800102106</v>
+        <v>1.042398001021059</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>50.92138603844741</v>
+        <v>50.9213860384474</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>64.74877071352834</v>
+        <v>64.74877071352833</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18351,7 +18351,7 @@
         <v>2251</v>
       </c>
       <c r="B2251">
-        <v>73.28622314077199</v>
+        <v>73.28622314077198</v>
       </c>
     </row>
     <row r="2252" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>48.58795442862578</v>
+        <v>48.58795442862577</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>58.67399422415598</v>
+        <v>58.67399422415597</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18639,7 +18639,7 @@
         <v>2287</v>
       </c>
       <c r="B2287">
-        <v>1.63940129103654</v>
+        <v>1.639401291036539</v>
       </c>
     </row>
     <row r="2288" spans="1:2">
@@ -18735,7 +18735,7 @@
         <v>2299</v>
       </c>
       <c r="B2299">
-        <v>39.71933172769481</v>
+        <v>39.7193317276948</v>
       </c>
     </row>
     <row r="2300" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>43.52046309913246</v>
+        <v>43.52046309913245</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>6.044531558182515</v>
+        <v>6.044531558182514</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -19007,7 +19007,7 @@
         <v>2333</v>
       </c>
       <c r="B2333">
-        <v>0.8316799242235523</v>
+        <v>0.8316799242235522</v>
       </c>
     </row>
     <row r="2334" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>36.8762495816411</v>
+        <v>36.87624958164109</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>36.97530759270863</v>
+        <v>36.97530759270862</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19111,7 +19111,7 @@
         <v>2346</v>
       </c>
       <c r="B2346">
-        <v>70.5984686452088</v>
+        <v>70.59846864520878</v>
       </c>
     </row>
     <row r="2347" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>47.27587538853894</v>
+        <v>47.27587538853893</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>0.8959181651877326</v>
+        <v>0.8959181651877325</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>0.4151937404715279</v>
+        <v>0.4151937404715278</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>0.4001269583739481</v>
+        <v>0.400126958373948</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>9.031892576569206</v>
+        <v>9.031892576569204</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>26.6690542187283</v>
+        <v>26.66905421872829</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>4.366817090261778</v>
+        <v>4.366817090261777</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19751,7 +19751,7 @@
         <v>2426</v>
       </c>
       <c r="B2426">
-        <v>0.7064448079827862</v>
+        <v>0.7064448079827861</v>
       </c>
     </row>
     <row r="2427" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>0.7196476582744799</v>
+        <v>0.7196476582744797</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>32.79464922620454</v>
+        <v>32.79464922620453</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -19847,7 +19847,7 @@
         <v>2438</v>
       </c>
       <c r="B2438">
-        <v>41.85171660499476</v>
+        <v>41.85171660499475</v>
       </c>
     </row>
     <row r="2439" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>48.84527080057044</v>
+        <v>48.84527080057043</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -19887,7 +19887,7 @@
         <v>2443</v>
       </c>
       <c r="B2443">
-        <v>42.28985780779347</v>
+        <v>42.28985780779346</v>
       </c>
     </row>
     <row r="2444" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>3.627486781030802</v>
+        <v>3.627486781030801</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>51.75956920901886</v>
+        <v>51.75956920901885</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>31.85037433963769</v>
+        <v>31.85037433963768</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>5.670924598097032</v>
+        <v>5.670924598097031</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>27.24895388292751</v>
+        <v>27.2489538829275</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20311,7 +20311,7 @@
         <v>2496</v>
       </c>
       <c r="B2496">
-        <v>0.987822312201544</v>
+        <v>0.9878223122015438</v>
       </c>
     </row>
     <row r="2497" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>0.8436723911255746</v>
+        <v>0.8436723911255745</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>0.6660596188552529</v>
+        <v>0.6660596188552528</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>29.01863404278017</v>
+        <v>29.01863404278016</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>0.6433524747797719</v>
+        <v>0.6433524747797718</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>0.6615346020183217</v>
+        <v>0.6615346020183216</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>78.96183687548761</v>
+        <v>78.96183687548759</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20671,7 +20671,7 @@
         <v>2541</v>
       </c>
       <c r="B2541">
-        <v>35.58703008256984</v>
+        <v>35.58703008256983</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>6.215714351864607</v>
+        <v>6.215714351864606</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>4.196484202591804</v>
+        <v>4.196484202591803</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>0.566919547896893</v>
+        <v>0.5669195478968929</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>0.5974839265188847</v>
+        <v>0.5974839265188846</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>49.8918274796301</v>
+        <v>49.89182747963009</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21231,7 +21231,7 @@
         <v>2611</v>
       </c>
       <c r="B2611">
-        <v>35.06477749167532</v>
+        <v>35.06477749167531</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>0.5898963173279425</v>
+        <v>0.5898963173279423</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>0.666930039840077</v>
+        <v>0.6669300398400769</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>0.9724624590653028</v>
+        <v>0.9724624590653026</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>0.5980143850988617</v>
+        <v>0.5980143850988616</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21695,7 +21695,7 @@
         <v>2669</v>
       </c>
       <c r="B2669">
-        <v>0.624124083933201</v>
+        <v>0.6241240839332008</v>
       </c>
     </row>
     <row r="2670" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>7.90559126788979</v>
+        <v>7.905591267889789</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>48.50354996949131</v>
+        <v>48.5035499694913</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>0.839264602704108</v>
+        <v>0.8392646027041079</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>0.8786650731417393</v>
+        <v>0.8786650731417391</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>0.8948982779731911</v>
+        <v>0.894898277973191</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22023,7 +22023,7 @@
         <v>2710</v>
       </c>
       <c r="B2710">
-        <v>3.237526456988016</v>
+        <v>3.237526456988015</v>
       </c>
     </row>
     <row r="2711" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>0.7253596128179896</v>
+        <v>0.7253596128179894</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>0.6974123585712436</v>
+        <v>0.6974123585712435</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>0.7723916531023622</v>
+        <v>0.7723916531023621</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -22095,7 +22095,7 @@
         <v>2719</v>
       </c>
       <c r="B2719">
-        <v>0.6932360962703195</v>
+        <v>0.6932360962703193</v>
       </c>
     </row>
     <row r="2720" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>0.674330083566276</v>
+        <v>0.6743300835662759</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>21.56443078863658</v>
+        <v>21.56443078863657</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>8.966039514182002</v>
+        <v>8.966039514182</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>30.27951357241288</v>
+        <v>30.27951357241287</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>22.17779916545092</v>
+        <v>22.17779916545091</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>7.161923507286626</v>
+        <v>7.161923507286625</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>0.9537996953233484</v>
+        <v>0.9537996953233482</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>39.37790396765434</v>
+        <v>39.37790396765433</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>59.73139453164611</v>
+        <v>59.7313945316461</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22423,7 +22423,7 @@
         <v>2760</v>
       </c>
       <c r="B2760">
-        <v>4.679904880863693</v>
+        <v>4.679904880863692</v>
       </c>
     </row>
     <row r="2761" spans="1:2">
@@ -22535,7 +22535,7 @@
         <v>2774</v>
       </c>
       <c r="B2774">
-        <v>58.76308781990903</v>
+        <v>58.76308781990902</v>
       </c>
     </row>
     <row r="2775" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>83.19876488141468</v>
+        <v>83.19876488141466</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22575,7 +22575,7 @@
         <v>2779</v>
       </c>
       <c r="B2779">
-        <v>58.48291190694878</v>
+        <v>58.48291190694877</v>
       </c>
     </row>
     <row r="2780" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>20.8404280947276</v>
+        <v>20.84042809472759</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>26.40924674295502</v>
+        <v>26.40924674295501</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>1.518222277970847</v>
+        <v>1.518222277970846</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>0.907901839958595</v>
+        <v>0.9079018399585947</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>0.7980089925917504</v>
+        <v>0.7980089925917503</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>0.7703108487278666</v>
+        <v>0.7703108487278665</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23087,7 +23087,7 @@
         <v>2843</v>
       </c>
       <c r="B2843">
-        <v>40.57041002396736</v>
+        <v>40.57041002396735</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>62.08241040378742</v>
+        <v>62.08241040378741</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>47.59649510483445</v>
+        <v>47.59649510483444</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>55.46867627431684</v>
+        <v>55.46867627431683</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>91.76669669667911</v>
+        <v>91.76669669667908</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23351,7 +23351,7 @@
         <v>2876</v>
       </c>
       <c r="B2876">
-        <v>57.61131863796994</v>
+        <v>57.61131863796993</v>
       </c>
     </row>
     <row r="2877" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>44.5626237126122</v>
+        <v>44.56262371261219</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23567,7 +23567,7 @@
         <v>2903</v>
       </c>
       <c r="B2903">
-        <v>30.38912214087222</v>
+        <v>30.38912214087221</v>
       </c>
     </row>
     <row r="2904" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>21.02922445783324</v>
+        <v>21.02922445783323</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23839,7 +23839,7 @@
         <v>2937</v>
       </c>
       <c r="B2937">
-        <v>42.90384163378899</v>
+        <v>42.90384163378898</v>
       </c>
     </row>
     <row r="2938" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>0.9511796402377158</v>
+        <v>0.9511796402377156</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>0.9087488152603264</v>
+        <v>0.9087488152603262</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>38.63643423984114</v>
+        <v>38.63643423984113</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24079,7 +24079,7 @@
         <v>2967</v>
       </c>
       <c r="B2967">
-        <v>29.40557573512475</v>
+        <v>29.40557573512474</v>
       </c>
     </row>
     <row r="2968" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>16.93877335702911</v>
+        <v>16.9387733570291</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24111,7 +24111,7 @@
         <v>2971</v>
       </c>
       <c r="B2971">
-        <v>22.24957226281908</v>
+        <v>22.24957226281907</v>
       </c>
     </row>
     <row r="2972" spans="1:2">
@@ -24279,7 +24279,7 @@
         <v>2992</v>
       </c>
       <c r="B2992">
-        <v>92.15882574640798</v>
+        <v>92.15882574640796</v>
       </c>
     </row>
     <row r="2993" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>4.267759079194243</v>
+        <v>4.267759079194242</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>64.63154229806381</v>
+        <v>64.63154229806379</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24423,7 +24423,7 @@
         <v>3010</v>
       </c>
       <c r="B3010">
-        <v>69.25591021710117</v>
+        <v>69.25591021710116</v>
       </c>
     </row>
     <row r="3011" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>68.05050903508706</v>
+        <v>68.05050903508705</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24495,7 +24495,7 @@
         <v>3019</v>
       </c>
       <c r="B3019">
-        <v>46.32808364950815</v>
+        <v>46.32808364950814</v>
       </c>
     </row>
     <row r="3020" spans="1:2">
@@ -24527,7 +24527,7 @@
         <v>3023</v>
       </c>
       <c r="B3023">
-        <v>24.88744606760212</v>
+        <v>24.88744606760211</v>
       </c>
     </row>
     <row r="3024" spans="1:2">
@@ -24551,7 +24551,7 @@
         <v>3026</v>
       </c>
       <c r="B3026">
-        <v>8.320843622569051</v>
+        <v>8.320843622569049</v>
       </c>
     </row>
     <row r="3027" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>7.194747463616697</v>
+        <v>7.194747463616696</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>35.34495340463557</v>
+        <v>35.34495340463556</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24655,7 +24655,7 @@
         <v>3039</v>
       </c>
       <c r="B3039">
-        <v>77.25821492774921</v>
+        <v>77.25821492774919</v>
       </c>
     </row>
     <row r="3040" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>59.70091514362533</v>
+        <v>59.70091514362532</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>3046</v>
       </c>
       <c r="B3046">
-        <v>55.04079255787128</v>
+        <v>55.04079255787127</v>
       </c>
     </row>
     <row r="3047" spans="1:2">
@@ -24727,7 +24727,7 @@
         <v>3048</v>
       </c>
       <c r="B3048">
-        <v>30.64145630515964</v>
+        <v>30.64145630515963</v>
       </c>
     </row>
     <row r="3049" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>11.51121494943646</v>
+        <v>11.51121494943645</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>49.69078074710842</v>
+        <v>49.69078074710841</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>89.89426583067177</v>
+        <v>89.89426583067176</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>61.70845175845555</v>
+        <v>61.70845175845554</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>58.64585940444449</v>
+        <v>58.64585940444448</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -24887,7 +24887,7 @@
         <v>3068</v>
       </c>
       <c r="B3068">
-        <v>54.88018962868486</v>
+        <v>54.88018962868485</v>
       </c>
     </row>
     <row r="3069" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>29.02197505262091</v>
+        <v>29.0219750526209</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>5.581743081032385</v>
+        <v>5.581743081032384</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>38.36886038154333</v>
+        <v>38.36886038154332</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>48.42471386009141</v>
+        <v>48.4247138600914</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>7.670548294883391</v>
+        <v>7.67054829488339</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>73.03125133713662</v>
+        <v>73.03125133713661</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25247,7 +25247,7 @@
         <v>3113</v>
       </c>
       <c r="B3113">
-        <v>79.32612417654366</v>
+        <v>79.32612417654364</v>
       </c>
     </row>
     <row r="3114" spans="1:2">
@@ -25431,7 +25431,7 @@
         <v>3136</v>
       </c>
       <c r="B3136">
-        <v>98.29338872766726</v>
+        <v>98.29338872766724</v>
       </c>
     </row>
     <row r="3137" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>102.367955378176</v>
+        <v>102.3679553781759</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>3.644045294715168</v>
+        <v>3.644045294715167</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>100.0008205989083</v>
+        <v>100.0008205989082</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>39.15106698373046</v>
+        <v>39.15106698373045</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>78.27898135540667</v>
+        <v>78.27898135540666</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>6.053001311199828</v>
+        <v>6.053001311199827</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>1.966304450400951</v>
+        <v>1.96630445040095</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>51.67047561326581</v>
+        <v>51.6704756132658</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>47.83358957511148</v>
+        <v>47.83358957511147</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>37.95123415145091</v>
+        <v>37.9512341514509</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>45.82107075262402</v>
+        <v>45.82107075262401</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>90.5665707933609</v>
+        <v>90.56657079336088</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26231,7 +26231,7 @@
         <v>3236</v>
       </c>
       <c r="B3236">
-        <v>60.44472943974783</v>
+        <v>60.44472943974782</v>
       </c>
     </row>
     <row r="3237" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>2.625690841705885</v>
+        <v>2.625690841705884</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>67.16367607209783</v>
+        <v>67.16367607209781</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>71.75961610038505</v>
+        <v>71.75961610038503</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>87.92453537982887</v>
+        <v>87.92453537982885</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>6.966064132149249</v>
+        <v>6.966064132149248</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>4.909262275720061</v>
+        <v>4.90926227572006</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>14.16377161325643</v>
+        <v>14.16377161325642</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26871,7 +26871,7 @@
         <v>3316</v>
       </c>
       <c r="B3316">
-        <v>0.7829422104941707</v>
+        <v>0.7829422104941706</v>
       </c>
     </row>
     <row r="3317" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>0.7131180355331052</v>
+        <v>0.713118035533105</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>46.68944024017758</v>
+        <v>46.68944024017757</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>43.97149942763227</v>
+        <v>43.97149942763226</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27183,7 +27183,7 @@
         <v>3355</v>
       </c>
       <c r="B3355">
-        <v>41.44933006891273</v>
+        <v>41.44933006891272</v>
       </c>
     </row>
     <row r="3356" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>3.562835309902109</v>
+        <v>3.562835309902108</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>0.7786985418543544</v>
+        <v>0.7786985418543543</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>42.31271734880905</v>
+        <v>42.31271734880904</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27375,7 +27375,7 @@
         <v>3379</v>
       </c>
       <c r="B3379">
-        <v>42.27198047443513</v>
+        <v>42.27198047443512</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>45.03358887174098</v>
+        <v>45.03358887174097</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>41.30162226542741</v>
+        <v>41.3016222654274</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>81.75216623458228</v>
+        <v>81.75216623458226</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>20.31928917378</v>
+        <v>20.31928917377999</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>34.56040223413915</v>
+        <v>34.56040223413914</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>79.44071495266024</v>
+        <v>79.44071495266023</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>76.59001295960134</v>
+        <v>76.59001295960132</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>115.383533276165</v>
+        <v>115.3835332761649</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>104.1814789654124</v>
+        <v>104.1814789654123</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>84.60286822764118</v>
+        <v>84.60286822764117</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28111,7 +28111,7 @@
         <v>3471</v>
       </c>
       <c r="B3471">
-        <v>97.81714828984258</v>
+        <v>97.81714828984256</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>61.09446793246003</v>
+        <v>61.09446793246002</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28255,7 +28255,7 @@
         <v>3489</v>
       </c>
       <c r="B3489">
-        <v>41.52318397065539</v>
+        <v>41.52318397065538</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -28375,7 +28375,7 @@
         <v>3504</v>
       </c>
       <c r="B3504">
-        <v>41.26850523805868</v>
+        <v>41.26850523805867</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>76.90652968135559</v>
+        <v>76.90652968135558</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>66.26482719652348</v>
+        <v>66.26482719652347</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>36.44543515480892</v>
+        <v>36.44543515480891</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28631,7 +28631,7 @@
         <v>3536</v>
       </c>
       <c r="B3536">
-        <v>70.32825714756304</v>
+        <v>70.32825714756302</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -28831,7 +28831,7 @@
         <v>3561</v>
       </c>
       <c r="B3561">
-        <v>85.87127968296748</v>
+        <v>85.87127968296747</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>88.34040318368932</v>
+        <v>88.3404031836893</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28967,7 +28967,7 @@
         <v>3578</v>
       </c>
       <c r="B3578">
-        <v>24.9103056086177</v>
+        <v>24.91030560861769</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>89.73073219109874</v>
+        <v>89.73073219109872</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>111.7942922656795</v>
+        <v>111.7942922656794</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>128.5219079393531</v>
+        <v>128.521907939353</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>156.0764469942928</v>
+        <v>156.0764469942927</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>121.257849175093</v>
+        <v>121.2578491750929</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29303,7 +29303,7 @@
         <v>3620</v>
       </c>
       <c r="B3620">
-        <v>122.6877427727217</v>
+        <v>122.6877427727216</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>73.96907866085293</v>
+        <v>73.96907866085292</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>88.57749765396635</v>
+        <v>88.57749765396633</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>69.49769382399678</v>
+        <v>69.49769382399677</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29823,7 +29823,7 @@
         <v>3685</v>
       </c>
       <c r="B3685">
-        <v>65.73436861654645</v>
+        <v>65.73436861654643</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>89.51473883560533</v>
+        <v>89.51473883560531</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>67.54115156989364</v>
+        <v>67.54115156989363</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>43.52573837782836</v>
+        <v>43.52573837782835</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>3.551552074913647</v>
+        <v>3.551552074913646</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>67.59742120931662</v>
+        <v>67.59742120931661</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>67.83129189816837</v>
+        <v>67.83129189816836</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>78.11661999998829</v>
+        <v>78.11661999998827</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30343,7 +30343,7 @@
         <v>3750</v>
       </c>
       <c r="B3750">
-        <v>45.09747835816916</v>
+        <v>45.09747835816915</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30479,7 +30479,7 @@
         <v>3767</v>
       </c>
       <c r="B3767">
-        <v>75.06457820336904</v>
+        <v>75.06457820336902</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>50.83991228969956</v>
+        <v>50.83991228969955</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>45.39523853344908</v>
+        <v>45.39523853344907</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30711,7 +30711,7 @@
         <v>3796</v>
       </c>
       <c r="B3796">
-        <v>39.9180338919072</v>
+        <v>39.91803389190719</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>77.86692347504882</v>
+        <v>77.86692347504881</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30759,7 +30759,7 @@
         <v>3802</v>
       </c>
       <c r="B3802">
-        <v>89.94262255205089</v>
+        <v>89.94262255205088</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>103.6536580247833</v>
+        <v>103.6536580247832</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>61.67269709173886</v>
+        <v>61.67269709173885</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>64.3692437184619</v>
+        <v>64.36924371846189</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -31039,7 +31039,7 @@
         <v>3837</v>
       </c>
       <c r="B3837">
-        <v>57.17317743517123</v>
+        <v>57.17317743517122</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>43.04891179792635</v>
+        <v>43.04891179792634</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>38.55994269875053</v>
+        <v>38.55994269875052</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>46.54935228369746</v>
+        <v>46.54935228369745</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>56.47010001342266</v>
+        <v>56.47010001342265</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31327,7 +31327,7 @@
         <v>3873</v>
       </c>
       <c r="B3873">
-        <v>30.75721936543087</v>
+        <v>30.75721936543086</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -31431,7 +31431,7 @@
         <v>3886</v>
       </c>
       <c r="B3886">
-        <v>59.58075601777418</v>
+        <v>59.58075601777417</v>
       </c>
     </row>
     <row r="3887" spans="1:2">
@@ -31463,7 +31463,7 @@
         <v>3890</v>
       </c>
       <c r="B3890">
-        <v>27.95985630140833</v>
+        <v>27.95985630140832</v>
       </c>
     </row>
     <row r="3891" spans="1:2">
@@ -31671,7 +31671,7 @@
         <v>3916</v>
       </c>
       <c r="B3916">
-        <v>32.23664196859334</v>
+        <v>32.23664196859333</v>
       </c>
     </row>
     <row r="3917" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>61.08127973572027</v>
+        <v>61.08127973572026</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>218.7080725245316</v>
+        <v>218.7080725245315</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>125.7166319572867</v>
+        <v>125.7166319572866</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32023,7 +32023,7 @@
         <v>3960</v>
       </c>
       <c r="B3960">
-        <v>89.00479522833459</v>
+        <v>89.00479522833457</v>
       </c>
     </row>
     <row r="3961" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>64.05067549943702</v>
+        <v>64.05067549943701</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32231,7 +32231,7 @@
         <v>3986</v>
       </c>
       <c r="B3986">
-        <v>68.12465600786838</v>
+        <v>68.12465600786837</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>66.03037036559441</v>
+        <v>66.03037036559439</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32431,7 +32431,7 @@
         <v>4011</v>
       </c>
       <c r="B4011">
-        <v>50.59021576476009</v>
+        <v>50.59021576476008</v>
       </c>
     </row>
     <row r="4012" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>98.9557292750419</v>
+        <v>98.95572927504188</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32583,7 +32583,7 @@
         <v>4030</v>
       </c>
       <c r="B4030">
-        <v>72.42459428710764</v>
+        <v>72.42459428710762</v>
       </c>
     </row>
     <row r="4031" spans="1:2">
@@ -32623,7 +32623,7 @@
         <v>4035</v>
       </c>
       <c r="B4035">
-        <v>39.55609115916044</v>
+        <v>39.55609115916043</v>
       </c>
     </row>
     <row r="4036" spans="1:2">
@@ -32807,7 +32807,7 @@
         <v>4058</v>
       </c>
       <c r="B4058">
-        <v>59.26511850913591</v>
+        <v>59.2651185091359</v>
       </c>
     </row>
     <row r="4059" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>65.46210562163006</v>
+        <v>65.46210562163004</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>143.6338229768867</v>
+        <v>143.6338229768866</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33183,7 +33183,7 @@
         <v>4105</v>
       </c>
       <c r="B4105">
-        <v>53.2369403149107</v>
+        <v>53.23694031491069</v>
       </c>
     </row>
     <row r="4106" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>62.34031291780941</v>
+        <v>62.3403129178094</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>70.89652189152739</v>
+        <v>70.89652189152737</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>77.87952552971126</v>
+        <v>77.87952552971124</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33367,7 +33367,7 @@
         <v>4128</v>
       </c>
       <c r="B4128">
-        <v>62.33239999976555</v>
+        <v>62.33239999976554</v>
       </c>
     </row>
     <row r="4129" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>63.30012056942531</v>
+        <v>63.3001205694253</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>128.2232685509572</v>
+        <v>128.2232685509571</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>135.7519704631285</v>
+        <v>135.7519704631284</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33959,7 +33959,7 @@
         <v>4202</v>
       </c>
       <c r="B4202">
-        <v>66.62911449757954</v>
+        <v>66.62911449757952</v>
       </c>
     </row>
     <row r="4203" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>80.27186441830382</v>
+        <v>80.27186441830381</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>92.38068052267462</v>
+        <v>92.3806805226746</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>23.60244679148758</v>
+        <v>23.60244679148757</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>21.92297389733488</v>
+        <v>21.92297389733487</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>33.30429976243662</v>
+        <v>33.30429976243661</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>58.30443164440402</v>
+        <v>58.30443164440401</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>79.39821965205435</v>
+        <v>79.39821965205434</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>81.00249051768655</v>
+        <v>81.00249051768654</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>81.86617086862154</v>
+        <v>81.86617086862152</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>75.64544500199582</v>
+        <v>75.64544500199581</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>140.4830162402386</v>
+        <v>140.4830162402385</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>74.18302051907571</v>
+        <v>74.1830205190757</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34879,7 +34879,7 @@
         <v>4317</v>
       </c>
       <c r="B4317">
-        <v>80.30498144567255</v>
+        <v>80.30498144567254</v>
       </c>
     </row>
     <row r="4318" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>42.17028482401964</v>
+        <v>42.17028482401963</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>114.4410168158301</v>
+        <v>114.44101681583</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35063,7 +35063,7 @@
         <v>4340</v>
       </c>
       <c r="B4340">
-        <v>79.38503145531459</v>
+        <v>79.38503145531458</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>47.69877689732726</v>
+        <v>47.69877689732725</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>77.60140111402164</v>
+        <v>77.60140111402163</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>91.92759269690418</v>
+        <v>91.92759269690416</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>67.16631371144578</v>
+        <v>67.16631371144577</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>62.80336515889433</v>
+        <v>62.80336515889432</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>132.2878707861514</v>
+        <v>132.2878707861513</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35695,7 +35695,7 @@
         <v>4419</v>
       </c>
       <c r="B4419">
-        <v>46.04233938681333</v>
+        <v>46.04233938681332</v>
       </c>
     </row>
     <row r="4420" spans="1:2">
@@ -35823,7 +35823,7 @@
         <v>4435</v>
       </c>
       <c r="B4435">
-        <v>71.69601968499553</v>
+        <v>71.69601968499552</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
@@ -35871,7 +35871,7 @@
         <v>4441</v>
       </c>
       <c r="B4441">
-        <v>40.12171826377684</v>
+        <v>40.12171826377683</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
@@ -35927,7 +35927,7 @@
         <v>4448</v>
       </c>
       <c r="B4448">
-        <v>71.28073802321241</v>
+        <v>71.28073802321239</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>94.42660944356948</v>
+        <v>94.42660944356946</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>113.5237044648201</v>
+        <v>113.52370446482</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>145.2413176239442</v>
+        <v>145.2413176239441</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36263,7 +36263,7 @@
         <v>4490</v>
       </c>
       <c r="B4490">
-        <v>61.16304655550678</v>
+        <v>61.16304655550677</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36271,7 +36271,7 @@
         <v>4491</v>
       </c>
       <c r="B4491">
-        <v>56.69693699734654</v>
+        <v>56.69693699734653</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>147.8235665455893</v>
+        <v>147.8235665455892</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36415,7 +36415,7 @@
         <v>4509</v>
       </c>
       <c r="B4509">
-        <v>130.1399531438024</v>
+        <v>130.1399531438023</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36599,7 +36599,7 @@
         <v>4532</v>
       </c>
       <c r="B4532">
-        <v>124.5012663599581</v>
+        <v>124.501266359958</v>
       </c>
     </row>
     <row r="4533" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>111.3705115437752</v>
+        <v>111.3705115437751</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>77.85637291765701</v>
+        <v>77.856372917657</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>98.98210566852144</v>
+        <v>98.9821056685214</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>96.02413967531248</v>
+        <v>96.02413967531244</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>42.7763557319713</v>
+        <v>42.77635573197129</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>59.93507890351575</v>
+        <v>59.93507890351574</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>63.2365241540358</v>
+        <v>63.23652415403579</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>85.33876960571982</v>
+        <v>85.3387696057198</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>45.17367682822111</v>
+        <v>45.1736768282211</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>38.48374422869858</v>
+        <v>38.48374422869857</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37071,7 +37071,7 @@
         <v>4591</v>
       </c>
       <c r="B4591">
-        <v>74.88844250913357</v>
+        <v>74.88844250913355</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>88.39872432038293</v>
+        <v>88.39872432038291</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>39.78292814308432</v>
+        <v>39.78292814308431</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37271,7 +37271,7 @@
         <v>4616</v>
       </c>
       <c r="B4616">
-        <v>83.19671338414405</v>
+        <v>83.19671338414403</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>107.1368073192734</v>
+        <v>107.1368073192733</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>89.63460489041782</v>
+        <v>89.6346048904178</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37391,7 +37391,7 @@
         <v>4631</v>
       </c>
       <c r="B4631">
-        <v>68.48894330892443</v>
+        <v>68.48894330892442</v>
       </c>
     </row>
     <row r="4632" spans="1:2">
@@ -37415,7 +37415,7 @@
         <v>4634</v>
       </c>
       <c r="B4634">
-        <v>54.50564484127566</v>
+        <v>54.50564484127565</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>75.47458458645626</v>
+        <v>75.47458458645625</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37615,7 +37615,7 @@
         <v>4659</v>
       </c>
       <c r="B4659">
-        <v>49.72389777447715</v>
+        <v>49.72389777447714</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37767,7 +37767,7 @@
         <v>4678</v>
       </c>
       <c r="B4678">
-        <v>83.31394179960859</v>
+        <v>83.31394179960857</v>
       </c>
     </row>
     <row r="4679" spans="1:2">
@@ -38007,7 +38007,7 @@
         <v>4708</v>
       </c>
       <c r="B4708">
-        <v>27.7763352169986</v>
+        <v>27.77633521699859</v>
       </c>
     </row>
     <row r="4709" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>79.83343014446645</v>
+        <v>79.83343014446643</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>121.5559024214116</v>
+        <v>121.5559024214115</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38159,7 +38159,7 @@
         <v>4727</v>
       </c>
       <c r="B4727">
-        <v>78.30272010953824</v>
+        <v>78.30272010953823</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38183,7 +38183,7 @@
         <v>4730</v>
       </c>
       <c r="B4730">
-        <v>46.54437007604022</v>
+        <v>46.54437007604021</v>
       </c>
     </row>
     <row r="4731" spans="1:2">
@@ -38191,7 +38191,7 @@
         <v>4731</v>
       </c>
       <c r="B4731">
-        <v>43.09756159034414</v>
+        <v>43.09756159034413</v>
       </c>
     </row>
     <row r="4732" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>37.96412927715201</v>
+        <v>37.964129277152</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>63.95513434083342</v>
+        <v>63.95513434083341</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>166.3723256535045</v>
+        <v>166.3723256535044</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38311,7 +38311,7 @@
         <v>4746</v>
       </c>
       <c r="B4746">
-        <v>175.8807224318332</v>
+        <v>175.8807224318331</v>
       </c>
     </row>
     <row r="4747" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>87.02304886490657</v>
+        <v>87.02304886490656</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38599,7 +38599,7 @@
         <v>4782</v>
       </c>
       <c r="B4782">
-        <v>80.15463600283928</v>
+        <v>80.15463600283927</v>
       </c>
     </row>
     <row r="4783" spans="1:2">
@@ -38735,7 +38735,7 @@
         <v>4799</v>
       </c>
       <c r="B4799">
-        <v>96.49979397105984</v>
+        <v>96.49979397105982</v>
       </c>
     </row>
     <row r="4800" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>84.76845336448484</v>
+        <v>84.76845336448483</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -39159,7 +39159,7 @@
         <v>4852</v>
       </c>
       <c r="B4852">
-        <v>68.67445727639706</v>
+        <v>68.67445727639705</v>
       </c>
     </row>
     <row r="4853" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>62.4214935955186</v>
+        <v>62.42149359551859</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>86.23615312610086</v>
+        <v>86.23615312610085</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>75.36526908903558</v>
+        <v>75.36526908903556</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39343,7 +39343,7 @@
         <v>4875</v>
       </c>
       <c r="B4875">
-        <v>62.49798513660921</v>
+        <v>62.4979851366092</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>66.26482719652348</v>
+        <v>66.26482719652347</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>205.9627061241883</v>
+        <v>205.9627061241882</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>206.3873660592086</v>
+        <v>206.3873660592085</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39519,7 +39519,7 @@
         <v>4897</v>
       </c>
       <c r="B4897">
-        <v>85.0075993320325</v>
+        <v>85.00759933203248</v>
       </c>
     </row>
     <row r="4898" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>66.37150505459621</v>
+        <v>66.3715050545962</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39567,7 +39567,7 @@
         <v>4903</v>
       </c>
       <c r="B4903">
-        <v>92.17142780107042</v>
+        <v>92.17142780107039</v>
       </c>
     </row>
     <row r="4904" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>164.8205145037927</v>
+        <v>164.8205145037926</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>72.19599887695179</v>
+        <v>72.19599887695178</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>82.86290547110877</v>
+        <v>82.86290547110876</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>133.5463178261632</v>
+        <v>133.5463178261631</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39879,7 +39879,7 @@
         <v>4942</v>
       </c>
       <c r="B4942">
-        <v>101.9600004923594</v>
+        <v>101.9600004923593</v>
       </c>
     </row>
     <row r="4943" spans="1:2">
@@ -39911,7 +39911,7 @@
         <v>4946</v>
       </c>
       <c r="B4946">
-        <v>60.03208541731265</v>
+        <v>60.03208541731264</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -39919,7 +39919,7 @@
         <v>4947</v>
       </c>
       <c r="B4947">
-        <v>56.62542766391317</v>
+        <v>56.62542766391316</v>
       </c>
     </row>
     <row r="4948" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>63.27491646010044</v>
+        <v>63.27491646010043</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>77.0694771788513</v>
+        <v>77.06947717885129</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>116.007481517475</v>
+        <v>116.0074815174749</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>138.4927708166894</v>
+        <v>138.4927708166893</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>153.550174641032</v>
+        <v>153.5501746410319</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>128.6060193274489</v>
+        <v>128.6060193274488</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40087,7 +40087,7 @@
         <v>4968</v>
       </c>
       <c r="B4968">
-        <v>60.51565263110387</v>
+        <v>60.51565263110386</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>48.01470747700419</v>
+        <v>48.01470747700418</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>44.98786978970981</v>
+        <v>44.9878697897098</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40143,7 +40143,7 @@
         <v>4975</v>
       </c>
       <c r="B4975">
-        <v>54.46754560624969</v>
+        <v>54.46754560624968</v>
       </c>
     </row>
     <row r="4976" spans="1:2">
@@ -40159,7 +40159,7 @@
         <v>4977</v>
       </c>
       <c r="B4977">
-        <v>79.81555281110811</v>
+        <v>79.81555281110809</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40295,7 +40295,7 @@
         <v>4994</v>
       </c>
       <c r="B4994">
-        <v>29.44895024884662</v>
+        <v>29.44895024884661</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40311,7 +40311,7 @@
         <v>4996</v>
       </c>
       <c r="B4996">
-        <v>21.07031301745356</v>
+        <v>21.07031301745355</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40479,7 +40479,7 @@
         <v>5017</v>
       </c>
       <c r="B5017">
-        <v>48.30250323696963</v>
+        <v>48.30250323696962</v>
       </c>
     </row>
     <row r="5018" spans="1:2">
@@ -40503,7 +40503,7 @@
         <v>5020</v>
       </c>
       <c r="B5020">
-        <v>38.50162156205692</v>
+        <v>38.50162156205691</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40511,7 +40511,7 @@
         <v>5021</v>
       </c>
       <c r="B5021">
-        <v>36.29538278301431</v>
+        <v>36.2953827830143</v>
       </c>
     </row>
     <row r="5022" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>42.13980543599886</v>
+        <v>42.13980543599885</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>72.21329006823281</v>
+        <v>72.21329006823279</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>73.35245719550946</v>
+        <v>73.35245719550944</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40655,7 +40655,7 @@
         <v>5039</v>
       </c>
       <c r="B5039">
-        <v>48.82475582786415</v>
+        <v>48.82475582786414</v>
       </c>
     </row>
     <row r="5040" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>27.42145549628357</v>
+        <v>27.42145549628356</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>34.99854343693786</v>
+        <v>34.99854343693785</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>38.50425920140487</v>
+        <v>38.50425920140486</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>48.45519324811219</v>
+        <v>48.45519324811218</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>49.76463464885108</v>
+        <v>49.76463464885107</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40775,7 +40775,7 @@
         <v>5054</v>
       </c>
       <c r="B5054">
-        <v>68.65657994303872</v>
+        <v>68.65657994303871</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40927,7 +40927,7 @@
         <v>5073</v>
       </c>
       <c r="B5073">
-        <v>59.61123540579496</v>
+        <v>59.61123540579495</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>93.48936826193049</v>
+        <v>93.48936826193048</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>134.4220140896833</v>
+        <v>134.4220140896832</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>70.48329172701489</v>
+        <v>70.48329172701487</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>59.26511850913591</v>
+        <v>59.2651185091359</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>65.05209923854284</v>
+        <v>65.05209923854282</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41263,7 +41263,7 @@
         <v>5115</v>
       </c>
       <c r="B5115">
-        <v>57.1195454350962</v>
+        <v>57.11954543509619</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>84.54190945159962</v>
+        <v>84.54190945159961</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>91.58118272920647</v>
+        <v>91.58118272920646</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>89.82539413658635</v>
+        <v>89.82539413658634</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>60.27621359251755</v>
+        <v>60.27621359251754</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>87.27743452646462</v>
+        <v>87.2774345264646</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41951,7 +41951,7 @@
         <v>5201</v>
       </c>
       <c r="B5201">
-        <v>67.01127913199393</v>
+        <v>67.01127913199392</v>
       </c>
     </row>
     <row r="5202" spans="1:2">
@@ -42007,7 +42007,7 @@
         <v>5208</v>
       </c>
       <c r="B5208">
-        <v>23.31078249381181</v>
+        <v>23.3107824938118</v>
       </c>
     </row>
     <row r="5209" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>8.585867762830505</v>
+        <v>8.585867762830503</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -42087,7 +42087,7 @@
         <v>5218</v>
       </c>
       <c r="B5218">
-        <v>53.29320995433368</v>
+        <v>53.29320995433367</v>
       </c>
     </row>
     <row r="5219" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>51.57112453115961</v>
+        <v>51.5711245311596</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42183,7 +42183,7 @@
         <v>5230</v>
       </c>
       <c r="B5230">
-        <v>45.35713929842311</v>
+        <v>45.3571392984231</v>
       </c>
     </row>
     <row r="5231" spans="1:2">
@@ -42247,7 +42247,7 @@
         <v>5238</v>
       </c>
       <c r="B5238">
-        <v>7.878863189163875</v>
+        <v>7.878863189163874</v>
       </c>
     </row>
     <row r="5239" spans="1:2">
@@ -42263,7 +42263,7 @@
         <v>5240</v>
       </c>
       <c r="B5240">
-        <v>57.39210150105125</v>
+        <v>57.39210150105124</v>
       </c>
     </row>
     <row r="5241" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>25.52637023898772</v>
+        <v>25.52637023898771</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>46.83480347535361</v>
+        <v>46.8348034753536</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>92.41643518939132</v>
+        <v>92.41643518939129</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>63.77460258101803</v>
+        <v>63.77460258101802</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>90.03142307676528</v>
+        <v>90.03142307676526</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42967,7 +42967,7 @@
         <v>5328</v>
       </c>
       <c r="B5328">
-        <v>55.96074254822924</v>
+        <v>55.96074254822923</v>
       </c>
     </row>
     <row r="5329" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>76.19319477325388</v>
+        <v>76.19319477325386</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>83.3517479635959</v>
+        <v>83.35174796359588</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43135,7 +43135,7 @@
         <v>5349</v>
       </c>
       <c r="B5349">
-        <v>87.78942963100599</v>
+        <v>87.78942963100597</v>
       </c>
     </row>
     <row r="5350" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>38.66720669890058</v>
+        <v>38.66720669890057</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>99.30067388754632</v>
+        <v>99.3006738875463</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>73.47965002628848</v>
+        <v>73.47965002628847</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43391,7 +43391,7 @@
         <v>5381</v>
       </c>
       <c r="B5381">
-        <v>60.83422085012875</v>
+        <v>60.83422085012874</v>
       </c>
     </row>
     <row r="5382" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>91.45545525362076</v>
+        <v>91.45545525362074</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>112.4918013376935</v>
+        <v>112.4918013376934</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>188.211979454548</v>
+        <v>188.2119794545479</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43727,7 +43727,7 @@
         <v>5423</v>
       </c>
       <c r="B5423">
-        <v>85.10753655621602</v>
+        <v>85.107536556216</v>
       </c>
     </row>
     <row r="5424" spans="1:2">
@@ -43735,7 +43735,7 @@
         <v>5424</v>
       </c>
       <c r="B5424">
-        <v>63.31037805577846</v>
+        <v>63.31037805577845</v>
       </c>
     </row>
     <row r="5425" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>38.18305334303204</v>
+        <v>38.18305334303203</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43887,7 +43887,7 @@
         <v>5443</v>
       </c>
       <c r="B5443">
-        <v>86.23292934467558</v>
+        <v>86.23292934467557</v>
       </c>
     </row>
     <row r="5444" spans="1:2">
@@ -43927,7 +43927,7 @@
         <v>5448</v>
       </c>
       <c r="B5448">
-        <v>38.85828901610778</v>
+        <v>38.85828901610777</v>
       </c>
     </row>
     <row r="5449" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>60.91862530926322</v>
+        <v>60.91862530926321</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>52.55936007352567</v>
+        <v>52.55936007352566</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>29.92050155005273</v>
+        <v>29.92050155005272</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>83.25034538421907</v>
+        <v>83.25034538421906</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44311,7 +44311,7 @@
         <v>5496</v>
       </c>
       <c r="B5496">
-        <v>70.16794728941528</v>
+        <v>70.16794728941527</v>
       </c>
     </row>
     <row r="5497" spans="1:2">
@@ -44319,7 +44319,7 @@
         <v>5497</v>
       </c>
       <c r="B5497">
-        <v>58.56936786335388</v>
+        <v>58.56936786335387</v>
       </c>
     </row>
     <row r="5498" spans="1:2">
@@ -44367,7 +44367,7 @@
         <v>5503</v>
       </c>
       <c r="B5503">
-        <v>53.73369572544168</v>
+        <v>53.73369572544167</v>
       </c>
     </row>
     <row r="5504" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>87.35158149924594</v>
+        <v>87.35158149924592</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44503,7 +44503,7 @@
         <v>5520</v>
       </c>
       <c r="B5520">
-        <v>47.6249229955846</v>
+        <v>47.62492299558459</v>
       </c>
     </row>
     <row r="5521" spans="1:2">
@@ -44551,7 +44551,7 @@
         <v>5526</v>
       </c>
       <c r="B5526">
-        <v>30.68336546368821</v>
+        <v>30.6833654636882</v>
       </c>
     </row>
     <row r="5527" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>77.05365134276359</v>
+        <v>77.05365134276357</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>93.50665945321153</v>
+        <v>93.5066594532115</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>90.8599349030609</v>
+        <v>90.85993490306087</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44647,7 +44647,7 @@
         <v>5538</v>
       </c>
       <c r="B5538">
-        <v>89.93002049738845</v>
+        <v>89.93002049738844</v>
       </c>
     </row>
     <row r="5539" spans="1:2">
@@ -44703,7 +44703,7 @@
         <v>5545</v>
       </c>
       <c r="B5545">
-        <v>46.43212386823292</v>
+        <v>46.43212386823291</v>
       </c>
     </row>
     <row r="5546" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>97.2157665185095</v>
+        <v>97.21576651850948</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>163.7733716826557</v>
+        <v>163.7733716826556</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>56.20018158681556</v>
+        <v>56.20018158681555</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -44959,7 +44959,7 @@
         <v>5577</v>
       </c>
       <c r="B5577">
-        <v>61.67005945239091</v>
+        <v>61.6700594523909</v>
       </c>
     </row>
     <row r="5578" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>90.18235466167587</v>
+        <v>90.18235466167586</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45031,7 +45031,7 @@
         <v>5586</v>
       </c>
       <c r="B5586">
-        <v>86.62828217582974</v>
+        <v>86.62828217582972</v>
       </c>
     </row>
     <row r="5587" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>89.94994932801742</v>
+        <v>89.94994932801741</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45055,7 +45055,7 @@
         <v>5589</v>
       </c>
       <c r="B5589">
-        <v>90.84674670632114</v>
+        <v>90.84674670632111</v>
       </c>
     </row>
     <row r="5590" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>9.230477512366134</v>
+        <v>9.230477512366132</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>7.392101501051247</v>
+        <v>7.392101501051246</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>98.69665447686528</v>
+        <v>98.69665447686526</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45447,7 +45447,7 @@
         <v>5638</v>
       </c>
       <c r="B5638">
-        <v>54.82450613133921</v>
+        <v>54.8245061313392</v>
       </c>
     </row>
     <row r="5639" spans="1:2">
@@ -45463,7 +45463,7 @@
         <v>5640</v>
       </c>
       <c r="B5640">
-        <v>26.79847438940115</v>
+        <v>26.79847438940114</v>
       </c>
     </row>
     <row r="5641" spans="1:2">
@@ -45639,7 +45639,7 @@
         <v>5662</v>
       </c>
       <c r="B5662">
-        <v>59.05088357987447</v>
+        <v>59.05088357987446</v>
       </c>
     </row>
     <row r="5663" spans="1:2">
@@ -45647,7 +45647,7 @@
         <v>5663</v>
       </c>
       <c r="B5663">
-        <v>44.2745348816081</v>
+        <v>44.27453488160809</v>
       </c>
     </row>
     <row r="5664" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>20.58727333153193</v>
+        <v>20.58727333153192</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45719,7 +45719,7 @@
         <v>5672</v>
       </c>
       <c r="B5672">
-        <v>58.3349110324248</v>
+        <v>58.33491103242479</v>
       </c>
     </row>
     <row r="5673" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>83.896860095506</v>
+        <v>83.89686009550599</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>63.41529748761922</v>
+        <v>63.41529748761921</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45855,7 +45855,7 @@
         <v>5689</v>
       </c>
       <c r="B5689">
-        <v>46.06812963821553</v>
+        <v>46.06812963821552</v>
       </c>
     </row>
     <row r="5690" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>146.8426577791898</v>
+        <v>146.8426577791897</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>70.45017469964615</v>
+        <v>70.45017469964614</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>95.32282067979588</v>
+        <v>95.32282067979584</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46191,7 +46191,7 @@
         <v>5731</v>
       </c>
       <c r="B5731">
-        <v>109.2126294861117</v>
+        <v>109.2126294861116</v>
       </c>
     </row>
     <row r="5732" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>82.32980925178379</v>
+        <v>82.32980925178377</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46415,7 +46415,7 @@
         <v>5759</v>
       </c>
       <c r="B5759">
-        <v>80.32754791564948</v>
+        <v>80.32754791564946</v>
       </c>
     </row>
     <row r="5760" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>66.39729530599841</v>
+        <v>66.3972953059984</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46439,7 +46439,7 @@
         <v>5762</v>
       </c>
       <c r="B5762">
-        <v>58.45975929489453</v>
+        <v>58.45975929489452</v>
       </c>
     </row>
     <row r="5763" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>91.59378478386893</v>
+        <v>91.5937847838689</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46799,7 +46799,7 @@
         <v>5807</v>
       </c>
       <c r="B5807">
-        <v>45.80583105861363</v>
+        <v>45.80583105861362</v>
       </c>
     </row>
     <row r="5808" spans="1:2">
@@ -46807,7 +46807,7 @@
         <v>5808</v>
       </c>
       <c r="B5808">
-        <v>36.86100988763071</v>
+        <v>36.8610098876307</v>
       </c>
     </row>
     <row r="5809" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>88.60475326056185</v>
+        <v>88.60475326056184</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46967,7 +46967,7 @@
         <v>5828</v>
       </c>
       <c r="B5828">
-        <v>105.1776274258223</v>
+        <v>105.1776274258222</v>
       </c>
     </row>
     <row r="5829" spans="1:2">
@@ -46999,7 +46999,7 @@
         <v>5832</v>
       </c>
       <c r="B5832">
-        <v>63.10171147625158</v>
+        <v>63.10171147625157</v>
       </c>
     </row>
     <row r="5833" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>142.589903937175</v>
+        <v>142.5899039371749</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>87.99868235261019</v>
+        <v>87.99868235261017</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>61.77673731046364</v>
+        <v>61.77673731046363</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>56.72976095367661</v>
+        <v>56.7297609536766</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>40.45318160850282</v>
+        <v>40.45318160850281</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47271,7 +47271,7 @@
         <v>5866</v>
       </c>
       <c r="B5866">
-        <v>141.1790599570593</v>
+        <v>141.1790599570592</v>
       </c>
     </row>
     <row r="5867" spans="1:2">
@@ -47423,7 +47423,7 @@
         <v>5885</v>
       </c>
       <c r="B5885">
-        <v>41.34734134745858</v>
+        <v>41.34734134745857</v>
       </c>
     </row>
     <row r="5886" spans="1:2">
@@ -47511,7 +47511,7 @@
         <v>5896</v>
       </c>
       <c r="B5896">
-        <v>81.42363360024291</v>
+        <v>81.42363360024289</v>
       </c>
     </row>
     <row r="5897" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>55.84087649341675</v>
+        <v>55.84087649341674</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47591,7 +47591,7 @@
         <v>5906</v>
       </c>
       <c r="B5906">
-        <v>7.661902699242881</v>
+        <v>7.66190269924288</v>
       </c>
     </row>
     <row r="5907" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>52.54148274016733</v>
+        <v>52.54148274016732</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>78.48559643766292</v>
+        <v>78.48559643766291</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47703,7 +47703,7 @@
         <v>5920</v>
       </c>
       <c r="B5920">
-        <v>89.40278569883669</v>
+        <v>89.40278569883668</v>
       </c>
     </row>
     <row r="5921" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>87.34689236262736</v>
+        <v>87.34689236262734</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>84.55451150626206</v>
+        <v>84.55451150626205</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47927,7 +47927,7 @@
         <v>5948</v>
       </c>
       <c r="B5948">
-        <v>61.35149123336603</v>
+        <v>61.35149123336602</v>
       </c>
     </row>
     <row r="5949" spans="1:2">
@@ -47935,7 +47935,7 @@
         <v>5949</v>
       </c>
       <c r="B5949">
-        <v>55.82036152071046</v>
+        <v>55.82036152071045</v>
       </c>
     </row>
     <row r="5950" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>35.29894125156574</v>
+        <v>35.29894125156573</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>98.80596997428596</v>
+        <v>98.80596997428594</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>60.60269472958629</v>
+        <v>60.60269472958628</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>87.49987544480858</v>
+        <v>87.49987544480857</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>57.87420335964917</v>
+        <v>57.87420335964916</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>51.8562826517771</v>
+        <v>51.85628265177709</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48535,7 +48535,7 @@
         <v>6024</v>
       </c>
       <c r="B6024">
-        <v>48.74035136872968</v>
+        <v>48.74035136872967</v>
       </c>
     </row>
     <row r="6025" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>47.14311420802535</v>
+        <v>47.14311420802534</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>70.1905137593922</v>
+        <v>70.19051375939219</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>69.16124827161356</v>
+        <v>69.16124827161354</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48711,7 +48711,7 @@
         <v>6046</v>
       </c>
       <c r="B6046">
-        <v>53.09714542946924</v>
+        <v>53.09714542946923</v>
       </c>
     </row>
     <row r="6047" spans="1:2">
@@ -48727,7 +48727,7 @@
         <v>6048</v>
       </c>
       <c r="B6048">
-        <v>40.3054738050175</v>
+        <v>40.30547380501749</v>
       </c>
     </row>
     <row r="6049" spans="1:2">
@@ -48735,7 +48735,7 @@
         <v>6049</v>
       </c>
       <c r="B6049">
-        <v>38.80465701603275</v>
+        <v>38.80465701603274</v>
       </c>
     </row>
     <row r="6050" spans="1:2">
@@ -48751,7 +48751,7 @@
         <v>6051</v>
       </c>
       <c r="B6051">
-        <v>29.91522627135683</v>
+        <v>29.91522627135682</v>
       </c>
     </row>
     <row r="6052" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>48.40419888738512</v>
+        <v>48.40419888738511</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>44.17020159184466</v>
+        <v>44.17020159184465</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>79.41023556463946</v>
+        <v>79.41023556463945</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49087,7 +49087,7 @@
         <v>6093</v>
       </c>
       <c r="B6093">
-        <v>68.56777941832433</v>
+        <v>68.56777941832432</v>
       </c>
     </row>
     <row r="6094" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>14.81617705242045</v>
+        <v>14.81617705242044</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>79.0817029303001</v>
+        <v>79.08170293030008</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49263,7 +49263,7 @@
         <v>6115</v>
       </c>
       <c r="B6115">
-        <v>89.28028200467625</v>
+        <v>89.28028200467624</v>
       </c>
     </row>
     <row r="6116" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>49.98883399342701</v>
+        <v>49.988833993427</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49367,7 +49367,7 @@
         <v>6128</v>
       </c>
       <c r="B6128">
-        <v>53.94529301535517</v>
+        <v>53.94529301535516</v>
       </c>
     </row>
     <row r="6129" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>72.48819070249715</v>
+        <v>72.48819070249714</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49495,7 +49495,7 @@
         <v>6144</v>
       </c>
       <c r="B6144">
-        <v>32.33863069004749</v>
+        <v>32.33863069004748</v>
       </c>
     </row>
     <row r="6145" spans="1:2">
@@ -49519,7 +49519,7 @@
         <v>6147</v>
       </c>
       <c r="B6147">
-        <v>15.8964955151339</v>
+        <v>15.89649551513389</v>
       </c>
     </row>
     <row r="6148" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>9.203749433640221</v>
+        <v>9.203749433640215</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>79.344001509902</v>
+        <v>79.34400150990199</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>89.7697106392407</v>
+        <v>89.76971063924069</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49639,7 +49639,7 @@
         <v>6162</v>
       </c>
       <c r="B6162">
-        <v>93.2065547096223</v>
+        <v>93.20655470962228</v>
       </c>
     </row>
     <row r="6163" spans="1:2">
@@ -49695,7 +49695,7 @@
         <v>6169</v>
       </c>
       <c r="B6169">
-        <v>32.92741040671813</v>
+        <v>32.92741040671812</v>
       </c>
     </row>
     <row r="6170" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>75.60705269593119</v>
+        <v>75.60705269593117</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49855,7 +49855,7 @@
         <v>6189</v>
       </c>
       <c r="B6189">
-        <v>57.5327755996087</v>
+        <v>57.53277559960869</v>
       </c>
     </row>
     <row r="6190" spans="1:2">
@@ -49983,7 +49983,7 @@
         <v>6205</v>
       </c>
       <c r="B6205">
-        <v>88.22317476822478</v>
+        <v>88.22317476822477</v>
       </c>
     </row>
     <row r="6206" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>30.9852286335094</v>
+        <v>30.98522863350939</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>75.01622148198992</v>
+        <v>75.0162214819899</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>77.54044233798008</v>
+        <v>77.54044233798007</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50247,7 +50247,7 @@
         <v>6238</v>
       </c>
       <c r="B6238">
-        <v>69.53608613006142</v>
+        <v>69.53608613006141</v>
       </c>
     </row>
     <row r="6239" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>47.99155486494994</v>
+        <v>47.99155486494993</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>35.4569065414042</v>
+        <v>35.45690654140419</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>54.44761677562072</v>
+        <v>54.44761677562071</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>68.26181325396189</v>
+        <v>68.26181325396188</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>86.35543303883603</v>
+        <v>86.35543303883601</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50487,7 +50487,7 @@
         <v>6268</v>
       </c>
       <c r="B6268">
-        <v>7.20427227237319</v>
+        <v>7.204272272373189</v>
       </c>
     </row>
     <row r="6269" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>5.61066919254826</v>
+        <v>5.610669192548259</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>79.93805650526855</v>
+        <v>79.93805650526853</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>86.53420637241945</v>
+        <v>86.53420637241943</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>40.81981347786816</v>
+        <v>40.81981347786815</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>40.32305806733718</v>
+        <v>40.32305806733717</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>10.70503513628683</v>
+        <v>10.70503513628682</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>35.76287270576665</v>
+        <v>35.76287270576664</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>44.87855429228913</v>
+        <v>44.87855429228912</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>78.07031477587979</v>
+        <v>78.07031477587978</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>58.11862460589273</v>
+        <v>58.11862460589272</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51151,7 +51151,7 @@
         <v>6351</v>
       </c>
       <c r="B6351">
-        <v>62.68144760681121</v>
+        <v>62.6814476068112</v>
       </c>
     </row>
     <row r="6352" spans="1:2">
@@ -51167,7 +51167,7 @@
         <v>6353</v>
       </c>
       <c r="B6353">
-        <v>43.51284325212726</v>
+        <v>43.51284325212725</v>
       </c>
     </row>
     <row r="6354" spans="1:2">
@@ -51175,7 +51175,7 @@
         <v>6354</v>
       </c>
       <c r="B6354">
-        <v>42.76111603796091</v>
+        <v>42.7611160379609</v>
       </c>
     </row>
     <row r="6355" spans="1:2">
@@ -51199,7 +51199,7 @@
         <v>6357</v>
       </c>
       <c r="B6357">
-        <v>36.00729395201021</v>
+        <v>36.0072939520102</v>
       </c>
     </row>
     <row r="6358" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>5.888734994030144</v>
+        <v>5.888734994030143</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51263,7 +51263,7 @@
         <v>6365</v>
       </c>
       <c r="B6365">
-        <v>5.156672846557969</v>
+        <v>5.156672846557968</v>
       </c>
     </row>
     <row r="6366" spans="1:2">
@@ -51303,7 +51303,7 @@
         <v>6370</v>
       </c>
       <c r="B6370">
-        <v>44.44012001845176</v>
+        <v>44.44012001845175</v>
       </c>
     </row>
     <row r="6371" spans="1:2">
@@ -51327,7 +51327,7 @@
         <v>6373</v>
       </c>
       <c r="B6373">
-        <v>40.89366737961082</v>
+        <v>40.89366737961081</v>
       </c>
     </row>
     <row r="6374" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>15.04764455875518</v>
+        <v>15.04764455875517</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>7.673977226035729</v>
+        <v>7.673977226035728</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>1.727949774657679</v>
+        <v>1.727949774657678</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>59.67776253157109</v>
+        <v>59.67776253157108</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>53.03823815069831</v>
+        <v>53.0382381506983</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51935,7 +51935,7 @@
         <v>6449</v>
       </c>
       <c r="B6449">
-        <v>76.98009051205959</v>
+        <v>76.98009051205958</v>
       </c>
     </row>
     <row r="6450" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>3.599557111046376</v>
+        <v>3.599557111046375</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>92.09786697036644</v>
+        <v>92.0978669703664</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>64.3109225817683</v>
+        <v>64.31092258176828</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>9.172537368022786</v>
+        <v>9.172537368022784</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>16.77834627046589</v>
+        <v>16.77834627046588</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52351,7 +52351,7 @@
         <v>6501</v>
       </c>
       <c r="B6501">
-        <v>58.11628003758344</v>
+        <v>58.11628003758343</v>
       </c>
     </row>
     <row r="6502" spans="1:2">
@@ -52359,7 +52359,7 @@
         <v>6502</v>
       </c>
       <c r="B6502">
-        <v>50.29450708675079</v>
+        <v>50.29450708675078</v>
       </c>
     </row>
     <row r="6503" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>58.085507578524</v>
+        <v>58.08550757852399</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52487,7 +52487,7 @@
         <v>6518</v>
       </c>
       <c r="B6518">
-        <v>76.71046515649115</v>
+        <v>76.71046515649114</v>
       </c>
     </row>
     <row r="6519" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>83.92997712287473</v>
+        <v>83.92997712287472</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52535,7 +52535,7 @@
         <v>6524</v>
       </c>
       <c r="B6524">
-        <v>51.74667408331776</v>
+        <v>51.74667408331775</v>
       </c>
     </row>
     <row r="6525" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>58.55647273765278</v>
+        <v>58.55647273765277</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52711,7 +52711,7 @@
         <v>6546</v>
       </c>
       <c r="B6546">
-        <v>43.07440897828989</v>
+        <v>43.07440897828988</v>
       </c>
     </row>
     <row r="6547" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>2.670551225593777</v>
+        <v>2.670551225593776</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>8.85915650638221</v>
+        <v>8.859156506382208</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>75.64280736264787</v>
+        <v>75.64280736264786</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53295,7 +53295,7 @@
         <v>6619</v>
       </c>
       <c r="B6619">
-        <v>79.2173948212003</v>
+        <v>79.21739482120029</v>
       </c>
     </row>
     <row r="6620" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>77.65298161682604</v>
+        <v>77.65298161682603</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>72.43983398111803</v>
+        <v>72.43983398111801</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>104.9683747042181</v>
+        <v>104.968374704218</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>78.64385479854005</v>
+        <v>78.64385479854003</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -53711,7 +53711,7 @@
         <v>6671</v>
       </c>
       <c r="B6671">
-        <v>51.90200173380827</v>
+        <v>51.90200173380826</v>
       </c>
     </row>
     <row r="6672" spans="1:2">
@@ -53719,7 +53719,7 @@
         <v>6672</v>
       </c>
       <c r="B6672">
-        <v>42.58556648580277</v>
+        <v>42.58556648580276</v>
       </c>
     </row>
     <row r="6673" spans="1:2">
@@ -53839,7 +53839,7 @@
         <v>6687</v>
       </c>
       <c r="B6687">
-        <v>37.49023340763662</v>
+        <v>37.49023340763661</v>
       </c>
     </row>
     <row r="6688" spans="1:2">
@@ -53903,7 +53903,7 @@
         <v>6695</v>
       </c>
       <c r="B6695">
-        <v>5.025435635445419</v>
+        <v>5.025435635445418</v>
       </c>
     </row>
     <row r="6696" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>0.8686596278818408</v>
+        <v>0.8686596278818407</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -53991,7 +53991,7 @@
         <v>6706</v>
       </c>
       <c r="B6706">
-        <v>35.22772498917103</v>
+        <v>35.22772498917102</v>
       </c>
     </row>
     <row r="6707" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>38.41487253461316</v>
+        <v>38.41487253461315</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>0.6025599169084992</v>
+        <v>0.6025599169084991</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54271,7 +54271,7 @@
         <v>6741</v>
       </c>
       <c r="B6741">
-        <v>3.629010750431841</v>
+        <v>3.62901075043184</v>
       </c>
     </row>
     <row r="6742" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>0.5474391159570734</v>
+        <v>0.5474391159570733</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>55.62459006688468</v>
+        <v>55.62459006688467</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>57.08672147876613</v>
+        <v>57.08672147876612</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>0.8073989886704599</v>
+        <v>0.8073989886704598</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>0.6800654837928786</v>
+        <v>0.6800654837928785</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>61.92737582433557</v>
+        <v>61.92737582433556</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>2.729901041633086</v>
+        <v>2.729901041633085</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54799,7 +54799,7 @@
         <v>6807</v>
       </c>
       <c r="B6807">
-        <v>81.25218704262602</v>
+        <v>81.25218704262601</v>
       </c>
     </row>
     <row r="6808" spans="1:2">
@@ -54815,7 +54815,7 @@
         <v>6809</v>
       </c>
       <c r="B6809">
-        <v>65.17401679062596</v>
+        <v>65.17401679062594</v>
       </c>
     </row>
     <row r="6810" spans="1:2">
@@ -54839,7 +54839,7 @@
         <v>6812</v>
       </c>
       <c r="B6812">
-        <v>55.92264331320327</v>
+        <v>55.92264331320326</v>
       </c>
     </row>
     <row r="6813" spans="1:2">
@@ -54951,7 +54951,7 @@
         <v>6826</v>
       </c>
       <c r="B6826">
-        <v>59.17309420299625</v>
+        <v>59.17309420299624</v>
       </c>
     </row>
     <row r="6827" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>64.0864301661537</v>
+        <v>64.08643016615369</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>64.69250107410537</v>
+        <v>64.69250107410535</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54983,7 +54983,7 @@
         <v>6830</v>
       </c>
       <c r="B6830">
-        <v>69.22279318973244</v>
+        <v>69.22279318973243</v>
       </c>
     </row>
     <row r="6831" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>68.78172127654712</v>
+        <v>68.7817212765471</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55031,7 +55031,7 @@
         <v>6836</v>
       </c>
       <c r="B6836">
-        <v>63.19578727966187</v>
+        <v>63.19578727966186</v>
       </c>
     </row>
     <row r="6837" spans="1:2">
@@ -55095,7 +55095,7 @@
         <v>6844</v>
       </c>
       <c r="B6844">
-        <v>7.111280831805946</v>
+        <v>7.111280831805945</v>
       </c>
     </row>
     <row r="6845" spans="1:2">
@@ -55143,7 +55143,7 @@
         <v>6850</v>
       </c>
       <c r="B6850">
-        <v>76.87282651190954</v>
+        <v>76.87282651190952</v>
       </c>
     </row>
     <row r="6851" spans="1:2">
@@ -55199,7 +55199,7 @@
         <v>6857</v>
       </c>
       <c r="B6857">
-        <v>88.706741982016</v>
+        <v>88.70674198201598</v>
       </c>
     </row>
     <row r="6858" spans="1:2">
@@ -55223,7 +55223,7 @@
         <v>6860</v>
       </c>
       <c r="B6860">
-        <v>55.57857791381485</v>
+        <v>55.57857791381484</v>
       </c>
     </row>
     <row r="6861" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>53.95291286236037</v>
+        <v>53.95291286236036</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55399,7 +55399,7 @@
         <v>6882</v>
       </c>
       <c r="B6882">
-        <v>53.65779032642839</v>
+        <v>53.65779032642838</v>
       </c>
     </row>
     <row r="6883" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>7.52058384440038</v>
+        <v>7.520583844400379</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>6.133888917870359</v>
+        <v>6.133888917870358</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>43.20687708776482</v>
+        <v>43.20687708776481</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>45.53327499265858</v>
+        <v>45.53327499265857</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>44.53185125355276</v>
+        <v>44.53185125355275</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>76.08065549440792</v>
+        <v>76.08065549440791</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>85.69778162807997</v>
+        <v>85.69778162807995</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55583,7 +55583,7 @@
         <v>6905</v>
       </c>
       <c r="B6905">
-        <v>72.77891717284921</v>
+        <v>72.77891717284919</v>
       </c>
     </row>
     <row r="6906" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>37.34985238011783</v>
+        <v>37.34985238011782</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>45.59921597635738</v>
+        <v>45.59921597635737</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>44.15730646614356</v>
+        <v>44.15730646614355</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>37.47997592128347</v>
+        <v>37.47997592128346</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55831,7 +55831,7 @@
         <v>6936</v>
       </c>
       <c r="B6936">
-        <v>3.685925146139874</v>
+        <v>3.685925146139873</v>
       </c>
     </row>
     <row r="6937" spans="1:2">
@@ -55863,7 +55863,7 @@
         <v>6940</v>
       </c>
       <c r="B6940">
-        <v>0.8894881865995027</v>
+        <v>0.8894881865995026</v>
       </c>
     </row>
     <row r="6941" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>51.2982753941659</v>
+        <v>51.29827539416589</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>0.8227383268339947</v>
+        <v>0.8227383268339946</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56071,7 +56071,7 @@
         <v>6966</v>
       </c>
       <c r="B6966">
-        <v>0.8738000938999609</v>
+        <v>0.8738000938999608</v>
       </c>
     </row>
     <row r="6967" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>52.3172833955914</v>
+        <v>52.31728339559139</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>60.59214417219448</v>
+        <v>60.59214417219447</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>0.9285633481842198</v>
+        <v>0.9285633481842196</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>6.585511388447492</v>
+        <v>6.585511388447491</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>29.03152916848127</v>
+        <v>29.03152916848126</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56319,7 +56319,7 @@
         <v>6997</v>
       </c>
       <c r="B6997">
-        <v>35.31183637726684</v>
+        <v>35.31183637726683</v>
       </c>
     </row>
     <row r="6998" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>0.8480977638093609</v>
+        <v>0.8480977638093607</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>0.7181236888734409</v>
+        <v>0.7181236888734408</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>43.85427101216773</v>
+        <v>43.85427101216772</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>47.0411254865712</v>
+        <v>47.04112548657119</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>83.64774971264386</v>
+        <v>83.64774971264384</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>6.662999371069551</v>
+        <v>6.66299937106955</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>2.679706764841558</v>
+        <v>2.679706764841557</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>67.36032673903959</v>
+        <v>67.36032673903958</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>55.84087649341675</v>
+        <v>55.84087649341674</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56767,7 +56767,7 @@
         <v>7053</v>
       </c>
       <c r="B7053">
-        <v>42.50878187367349</v>
+        <v>42.50878187367348</v>
       </c>
     </row>
     <row r="7054" spans="1:2">
@@ -56783,7 +56783,7 @@
         <v>7055</v>
       </c>
       <c r="B7055">
-        <v>27.30487183710409</v>
+        <v>27.30487183710408</v>
       </c>
     </row>
     <row r="7056" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>6.229898990135816</v>
+        <v>6.229898990135815</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>83.15568343873146</v>
+        <v>83.15568343873144</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56959,7 +56959,7 @@
         <v>7077</v>
       </c>
       <c r="B7077">
-        <v>51.70593720894383</v>
+        <v>51.70593720894382</v>
       </c>
     </row>
     <row r="7078" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>7.94796934008022</v>
+        <v>7.947969340080219</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>82.49539438862745</v>
+        <v>82.49539438862743</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57223,7 +57223,7 @@
         <v>7110</v>
       </c>
       <c r="B7110">
-        <v>17.62681623449435</v>
+        <v>17.62681623449434</v>
       </c>
     </row>
     <row r="7111" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>66.04033478090889</v>
+        <v>66.04033478090888</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57767,7 +57767,7 @@
         <v>7178</v>
       </c>
       <c r="B7178">
-        <v>0.8887086176366635</v>
+        <v>0.8887086176366634</v>
       </c>
     </row>
     <row r="7179" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>0.7550770161382498</v>
+        <v>0.7550770161382497</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>27.64199145287623</v>
+        <v>27.64199145287622</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>22.02607628873594</v>
+        <v>22.02607628873593</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>0.882518957300136</v>
+        <v>0.8825189573001359</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>16.25495070252059</v>
+        <v>16.25495070252058</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>21.9362793224901</v>
+        <v>21.93627932249009</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58095,7 +58095,7 @@
         <v>7219</v>
       </c>
       <c r="B7219">
-        <v>7.425716749185702</v>
+        <v>7.425716749185701</v>
       </c>
     </row>
     <row r="7220" spans="1:2">
@@ -58183,7 +58183,7 @@
         <v>7230</v>
       </c>
       <c r="B7230">
-        <v>0.4753377790256092</v>
+        <v>0.4753377790256091</v>
       </c>
     </row>
     <row r="7231" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>20.50427561338304</v>
+        <v>20.50427561338303</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>0.7555752369039742</v>
+        <v>0.7555752369039741</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58375,7 +58375,7 @@
         <v>7254</v>
       </c>
       <c r="B7254">
-        <v>0.8043979412345676</v>
+        <v>0.8043979412345675</v>
       </c>
     </row>
     <row r="7255" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>4.011116770638503</v>
+        <v>4.011116770638502</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>0.8884272694395486</v>
+        <v>0.8884272694395485</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>4.218142152348877</v>
+        <v>4.218142152348876</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>19.90664515134482</v>
+        <v>19.90664515134481</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>18.70690024037687</v>
+        <v>18.70690024037686</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>4.016538584853738</v>
+        <v>4.016538584853737</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>50.78628028962453</v>
+        <v>50.78628028962452</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>44.6490796690173</v>
+        <v>44.64907966901729</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59055,7 +59055,7 @@
         <v>7339</v>
       </c>
       <c r="B7339">
-        <v>21.35749332823781</v>
+        <v>21.3574933282378</v>
       </c>
     </row>
     <row r="7340" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>4.700654310400916</v>
+        <v>4.700654310400915</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>0.8958361052969074</v>
+        <v>0.8958361052969073</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59239,7 +59239,7 @@
         <v>7362</v>
       </c>
       <c r="B7362">
-        <v>26.5057550359862</v>
+        <v>26.50575503598619</v>
       </c>
     </row>
     <row r="7363" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>19.56369342190332</v>
+        <v>19.56369342190331</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59287,7 +59287,7 @@
         <v>7368</v>
       </c>
       <c r="B7368">
-        <v>2.137789107252864</v>
+        <v>2.137789107252863</v>
       </c>
     </row>
     <row r="7369" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>5.496107723535539</v>
+        <v>5.496107723535538</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59455,7 +59455,7 @@
         <v>7389</v>
       </c>
       <c r="B7389">
-        <v>13.84631706417846</v>
+        <v>13.84631706417845</v>
       </c>
     </row>
     <row r="7390" spans="1:2">
@@ -59503,7 +59503,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>0.9056070937258768</v>
+        <v>0.9056070937258766</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>31.96994732341152</v>
+        <v>31.96994732341151</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>0.8378637231393067</v>
+        <v>0.8378637231393066</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>0.7194161321539374</v>
+        <v>0.7194161321539373</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59695,7 +59695,7 @@
         <v>7419</v>
       </c>
       <c r="B7419">
-        <v>0.5724878976314586</v>
+        <v>0.5724878976314585</v>
       </c>
     </row>
     <row r="7420" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>2.044070850509739</v>
+        <v>2.044070850509738</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>0.4895634472422309</v>
+        <v>0.4895634472422308</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>3.081641971524046</v>
+        <v>3.081641971524045</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>0.9288945184579072</v>
+        <v>0.928894518457907</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>0.6126210456657432</v>
+        <v>0.612621045665743</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>6.40128693354497</v>
+        <v>6.401286933544969</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>3.212586111597935</v>
+        <v>3.212586111597934</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>2.522764292928021</v>
+        <v>2.52276429292802</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>7.990669790413178</v>
+        <v>7.990669790413177</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60607,7 +60607,7 @@
         <v>7533</v>
       </c>
       <c r="B7533">
-        <v>9.633127812382956</v>
+        <v>9.633127812382954</v>
       </c>
     </row>
     <row r="7534" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>0.8384440037958562</v>
+        <v>0.838444003795856</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>0.8130581904270104</v>
+        <v>0.8130581904270103</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>30.03509232616932</v>
+        <v>30.03509232616931</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>42.33088775320606</v>
+        <v>42.33088775320605</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>0.8649317642700686</v>
+        <v>0.8649317642700685</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>0.5632971898590388</v>
+        <v>0.5632971898590386</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>0.6201119414139271</v>
+        <v>0.620111941413927</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>0.9047454648722124</v>
+        <v>0.9047454648722122</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>0.7383866204864863</v>
+        <v>0.7383866204864862</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>0.4075856163078794</v>
+        <v>0.4075856163078793</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>0.5338464811839602</v>
+        <v>0.5338464811839601</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>0.5726490867027223</v>
+        <v>0.5726490867027222</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61495,7 +61495,7 @@
         <v>7644</v>
       </c>
       <c r="B7644">
-        <v>4.310869828981327</v>
+        <v>4.310869828981326</v>
       </c>
     </row>
     <row r="7645" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>8.276970888081447</v>
+        <v>8.276970888081445</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>2.737652770605679</v>
+        <v>2.737652770605678</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>0.4699423412038538</v>
+        <v>0.4699423412038537</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>0.3834394934325711</v>
+        <v>0.383439493432571</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>6.728940354768354</v>
+        <v>6.728940354768353</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61807,7 +61807,7 @@
         <v>7683</v>
       </c>
       <c r="B7683">
-        <v>0.750792317553021</v>
+        <v>0.7507923175530209</v>
       </c>
     </row>
     <row r="7684" spans="1:2">
@@ -61823,7 +61823,7 @@
         <v>7685</v>
       </c>
       <c r="B7685">
-        <v>0.6875593102514492</v>
+        <v>0.6875593102514491</v>
       </c>
     </row>
     <row r="7686" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>0.4632749750743082</v>
+        <v>0.4632749750743081</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>0.5978561267379846</v>
+        <v>0.5978561267379845</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>9.079458006143945</v>
+        <v>9.079458006143939</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>7.890556723606463</v>
+        <v>7.890556723606462</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>0.8773374613366033</v>
+        <v>0.8773374613366032</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>0.4084648294238634</v>
+        <v>0.4084648294238633</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>0.3766519681771744</v>
+        <v>0.3766519681771743</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>0.3314516218844351</v>
+        <v>0.331451621884435</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>0.3986147118144556</v>
+        <v>0.3986147118144555</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>0.7964088247206594</v>
+        <v>0.7964088247206593</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -63031,7 +63031,7 @@
         <v>7836</v>
       </c>
       <c r="B7836">
-        <v>4.384430659685324</v>
+        <v>4.384430659685323</v>
       </c>
     </row>
     <row r="7837" spans="1:2">
@@ -63039,7 +63039,7 @@
         <v>7837</v>
       </c>
       <c r="B7837">
-        <v>4.892703762035695</v>
+        <v>4.892703762035694</v>
       </c>
     </row>
     <row r="7838" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>5.987998154824742</v>
+        <v>5.987998154824741</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63095,7 +63095,7 @@
         <v>7844</v>
       </c>
       <c r="B7844">
-        <v>0.5724585905275924</v>
+        <v>0.5724585905275923</v>
       </c>
     </row>
     <row r="7845" spans="1:2">
@@ -63303,7 +63303,7 @@
         <v>7870</v>
       </c>
       <c r="B7870">
-        <v>0.5898758023552362</v>
+        <v>0.5898758023552361</v>
       </c>
     </row>
     <row r="7871" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>0.4077145675648904</v>
+        <v>0.4077145675648903</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>0.5079683084701634</v>
+        <v>0.5079683084701633</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>0.4571087604208735</v>
+        <v>0.4571087604208734</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>0.7576062192018973</v>
+        <v>0.7576062192018972</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>4.029961238424427</v>
+        <v>4.029961238424426</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63727,7 +63727,7 @@
         <v>7923</v>
       </c>
       <c r="B7923">
-        <v>0.7826344859035762</v>
+        <v>0.7826344859035761</v>
       </c>
     </row>
     <row r="7924" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>0.8296753183191087</v>
+        <v>0.8296753183191086</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>19.92340881475625</v>
+        <v>19.92340881475624</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>2.987243789971227</v>
+        <v>2.987243789971226</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63871,7 +63871,7 @@
         <v>7941</v>
       </c>
       <c r="B7941">
-        <v>6.587416350198791</v>
+        <v>6.58741635019879</v>
       </c>
     </row>
     <row r="7942" spans="1:2">
@@ -63959,7 +63959,7 @@
         <v>7952</v>
       </c>
       <c r="B7952">
-        <v>0.5055358188492742</v>
+        <v>0.5055358188492741</v>
       </c>
     </row>
     <row r="7953" spans="1:2">
@@ -63975,7 +63975,7 @@
         <v>7954</v>
       </c>
       <c r="B7954">
-        <v>9.805189819181033</v>
+        <v>9.805189819181029</v>
       </c>
     </row>
     <row r="7955" spans="1:2">
@@ -64087,7 +64087,7 @@
         <v>7968</v>
       </c>
       <c r="B7968">
-        <v>0.9384925949740662</v>
+        <v>0.938492594974066</v>
       </c>
     </row>
     <row r="7969" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>0.5862622364485418</v>
+        <v>0.5862622364485417</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>0.452032770031259</v>
+        <v>0.4520327700312589</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>1.236794951675517</v>
+        <v>1.236794951675516</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64247,7 +64247,7 @@
         <v>7988</v>
       </c>
       <c r="B7988">
-        <v>1.421757945595465</v>
+        <v>1.421757945595464</v>
       </c>
     </row>
     <row r="7989" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>4.803815316009709</v>
+        <v>4.803815316009708</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>0.7792524461174243</v>
+        <v>0.7792524461174242</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>0.9277603335382878</v>
+        <v>0.9277603335382876</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>32.98836918275969</v>
+        <v>32.98836918275968</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>7.921124032938841</v>
+        <v>7.92112403293884</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>0.7056828232822667</v>
+        <v>0.7056828232822666</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>0.4309902694553744</v>
+        <v>0.4309902694553743</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64775,7 +64775,7 @@
         <v>8054</v>
       </c>
       <c r="B8054">
-        <v>33.34005442915331</v>
+        <v>33.3400544291533</v>
       </c>
     </row>
     <row r="8055" spans="1:2">
@@ -64807,7 +64807,7 @@
         <v>8058</v>
       </c>
       <c r="B8058">
-        <v>6.420043480019296</v>
+        <v>6.420043480019295</v>
       </c>
     </row>
     <row r="8059" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>0.8106550079099875</v>
+        <v>0.8106550079099873</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>0.6874332897048248</v>
+        <v>0.6874332897048246</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>0.6607638251866423</v>
+        <v>0.6607638251866422</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>18.66370156927819</v>
+        <v>18.66370156927818</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>1.79893744164223</v>
+        <v>1.798937441642229</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>41.46691433123241</v>
+        <v>41.4669143312324</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>35.08763703269091</v>
+        <v>35.0876370326909</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>6.8622583702554</v>
+        <v>6.862258370255399</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65271,7 +65271,7 @@
         <v>8116</v>
       </c>
       <c r="B8116">
-        <v>3.339720328169227</v>
+        <v>3.339720328169226</v>
       </c>
     </row>
     <row r="8117" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>36.84547712258166</v>
+        <v>36.84547712258165</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65551,7 +65551,7 @@
         <v>8151</v>
       </c>
       <c r="B8151">
-        <v>75.24012775552718</v>
+        <v>75.24012775552717</v>
       </c>
     </row>
     <row r="8152" spans="1:2">
@@ -65639,7 +65639,7 @@
         <v>8162</v>
       </c>
       <c r="B8162">
-        <v>21.89990920659223</v>
+        <v>21.89990920659222</v>
       </c>
     </row>
     <row r="8163" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>54.24363933271242</v>
+        <v>54.24363933271241</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>52.50103893683206</v>
+        <v>52.50103893683205</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65791,7 +65791,7 @@
         <v>8181</v>
       </c>
       <c r="B8181">
-        <v>44.23379800723417</v>
+        <v>44.23379800723416</v>
       </c>
     </row>
     <row r="8182" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>41.84673439733752</v>
+        <v>41.84673439733751</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>12.26171126524043</v>
+        <v>12.26171126524042</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>6.645092730607344</v>
+        <v>6.645092730607343</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -66039,7 +66039,7 @@
         <v>8212</v>
       </c>
       <c r="B8212">
-        <v>0.7570845527530802</v>
+        <v>0.7570845527530801</v>
       </c>
     </row>
     <row r="8213" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>9.538055567441216</v>
+        <v>9.538055567441214</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>0.6394722142278956</v>
+        <v>0.6394722142278955</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>1.055735663990538</v>
+        <v>1.055735663990537</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>6.83693703251506</v>
+        <v>6.836937032515059</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>0.7780420627277529</v>
+        <v>0.7780420627277528</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66439,7 +66439,7 @@
         <v>8262</v>
       </c>
       <c r="B8262">
-        <v>0.632842947333376</v>
+        <v>0.6328429473333759</v>
       </c>
     </row>
     <row r="8263" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>0.6831984131961684</v>
+        <v>0.6831984131961683</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>8.329987438975284</v>
+        <v>8.329987438975282</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>0.2354975261873627</v>
+        <v>0.2354975261873626</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>2.114882674871093</v>
+        <v>2.114882674871092</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>0.6001977643368888</v>
+        <v>0.6001977643368887</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67047,7 +67047,7 @@
         <v>8338</v>
       </c>
       <c r="B8338">
-        <v>7.661521706892621</v>
+        <v>7.66152170689262</v>
       </c>
     </row>
     <row r="8339" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>6.950853745242725</v>
+        <v>6.950853745242724</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>7.829187648110777</v>
+        <v>7.829187648110776</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67111,7 +67111,7 @@
         <v>8346</v>
       </c>
       <c r="B8346">
-        <v>0.4038108613299212</v>
+        <v>0.4038108613299211</v>
       </c>
     </row>
     <row r="8347" spans="1:2">
@@ -67183,7 +67183,7 @@
         <v>8355</v>
       </c>
       <c r="B8355">
-        <v>0.292113282507</v>
+        <v>0.2921132825069999</v>
       </c>
     </row>
     <row r="8356" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>0.276953303819126</v>
+        <v>0.2769533038191259</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>0.2901558610397809</v>
+        <v>0.2901558610397808</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>1.396474707090151</v>
+        <v>1.39647470709015</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67375,7 +67375,7 @@
         <v>8379</v>
       </c>
       <c r="B8379">
-        <v>0.4357350895713016</v>
+        <v>0.4357350895713015</v>
       </c>
     </row>
     <row r="8380" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>4.917438957698713</v>
+        <v>4.917438957698712</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>8.810067107406434</v>
+        <v>8.810067107406432</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>0.3271581311680464</v>
+        <v>0.3271581311680463</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>0.6483669202512675</v>
+        <v>0.6483669202512674</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>0.630348912794368</v>
+        <v>0.6303489127943679</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>0.573970837087085</v>
+        <v>0.5739708370870849</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>0.4208294965449856</v>
+        <v>0.4208294965449855</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>0.5616765070152415</v>
+        <v>0.5616765070152414</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>7.634764321062841</v>
+        <v>7.63476432106284</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>12.31783436914408</v>
+        <v>12.31783436914407</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>0.3579217980963278</v>
+        <v>0.3579217980963277</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>0.4713725278725212</v>
+        <v>0.4713725278725211</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -67959,7 +67959,7 @@
         <v>8452</v>
       </c>
       <c r="B8452">
-        <v>0.4860378026471349</v>
+        <v>0.4860378026471348</v>
       </c>
     </row>
     <row r="8453" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>0.6767772267390983</v>
+        <v>0.6767772267390982</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>0.6694328665102449</v>
+        <v>0.6694328665102448</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68367,7 +68367,7 @@
         <v>8503</v>
       </c>
       <c r="B8503">
-        <v>0.8075132863755378</v>
+        <v>0.8075132863755377</v>
       </c>
     </row>
     <row r="8504" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>0.9975991620512864</v>
+        <v>0.9975991620512862</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>0.6194671851288722</v>
+        <v>0.6194671851288721</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68671,7 +68671,7 @@
         <v>8541</v>
       </c>
       <c r="B8541">
-        <v>0.8760362259249469</v>
+        <v>0.8760362259249468</v>
       </c>
     </row>
     <row r="8542" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>0.4334227590762636</v>
+        <v>0.4334227590762635</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68775,7 +68775,7 @@
         <v>8554</v>
       </c>
       <c r="B8554">
-        <v>0.2936161507932554</v>
+        <v>0.2936161507932553</v>
       </c>
     </row>
     <row r="8555" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>0.08205666704375141</v>
+        <v>0.08205666704375129</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>0.6330334435085059</v>
+        <v>0.6330334435085058</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>2.593804712699531</v>
+        <v>2.59380471269953</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>2.769064124529402</v>
+        <v>2.769064124529401</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69215,7 +69215,7 @@
         <v>8609</v>
       </c>
       <c r="B8609">
-        <v>0.6888019314553733</v>
+        <v>0.6888019314553732</v>
       </c>
     </row>
     <row r="8610" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>0.3767105823849067</v>
+        <v>0.3767105823849066</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>0.1937029584349069</v>
+        <v>0.1937029584349068</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>4.587265125542841</v>
+        <v>4.58726512554284</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>2.332464475394049</v>
+        <v>2.332464475394048</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69799,7 +69799,7 @@
         <v>8682</v>
       </c>
       <c r="B8682">
-        <v>0.3523065569955764</v>
+        <v>0.3523065569955763</v>
       </c>
     </row>
     <row r="8683" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>0.9306617368210351</v>
+        <v>0.930661736821035</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>0.992742974940668</v>
+        <v>0.9927429749406678</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70103,7 +70103,7 @@
         <v>8720</v>
       </c>
       <c r="B8720">
-        <v>0.5430342582459934</v>
+        <v>0.5430342582459933</v>
       </c>
     </row>
     <row r="8721" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>0.5697242377368821</v>
+        <v>0.569724237736882</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>0.390165473769849</v>
+        <v>0.3901654737698489</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>0.2001133012635465</v>
+        <v>0.2001133012635464</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
